--- a/Covid_19_Dataset_and_References/References/19.xlsx
+++ b/Covid_19_Dataset_and_References/References/19.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="83">
   <si>
     <t>Doi</t>
   </si>
@@ -353,6 +353,90 @@
   </si>
   <si>
     <t>PMC7177115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
+ In addition, we studied whether underlying neurological diseases are risk factors for death.
+Methods
+id="Par2"&gt;In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
+ We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
+Results
+id="Par3"&gt;In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
+ However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
+ The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
+Conclusions
+id="Par4"&gt;Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
+</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,  Ju-Hyun%Kim%NULL%1,  Jin-Sung%Park%NULL%1,  Min Cheol%Chang%wheel633@ynu.ac.kr%1,  Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The natural history of coronavirus disease 2019 (COVID-19) has yet to be fully described.
+ Here, we use patient-level data from the Information System for Research in Primary Care (SIDIAP) to summarise COVID-19 outcomes in Catalonia, Spain.
+ We included 5,586,521 individuals from the general population.
+ Of these, 102,002 had an outpatient diagnosis of COVID-19, 16,901 were hospitalised with COVID-19, and 5273 died after either being diagnosed or hospitalised with COVID-19 between 1st March and 6th May 2020. Older age, being male, and having comorbidities were all generally associated with worse outcomes.
+ These findings demonstrate the continued need to protect those at high risk of poor outcomes, particularly older people, from COVID-19 and provide appropriate care for those who develop symptomatic disease.
+ While risks of hospitalisation and death were lower for younger populations, there is a need to limit their role in community transmission.
+</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,  Cristian%Tebé%NULL%2,  Cristian%Tebé%NULL%0,  Sergio%Fernandez-Bertolin%NULL%1,  Maria%Aragon%NULL%1,  Martina%Recalde%NULL%2,  Martina%Recalde%NULL%0,  Elena%Roel%NULL%1,  Albert%Prats-Uribe%NULL%2,  Albert%Prats-Uribe%NULL%0,  Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,  Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,  Talita%Duarte-Salles%NULL%2,  Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
+ In addition, we studied whether underlying neurological diseases are risk factors for death.
+Methods
+In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
+ We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
+Results
+id="Par3"&gt;In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
+ However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
+ The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
+Conclusions
+id="Par4"&gt;Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
+</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,   Ju-Hyun%Kim%NULL%1,   Jin-Sung%Park%NULL%1,   Min Cheol%Chang%wheel633@ynu.ac.kr%1,   Donghwi%Park%bdome@hanmail.net%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
+ In addition, we studied whether underlying neurological diseases are risk factors for death.
+Methods
+In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
+ We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
+Results
+In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
+ However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
+ The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
+Conclusions
+id="Par4"&gt;Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
+</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,    Ju-Hyun%Kim%NULL%1,    Jin-Sung%Park%NULL%1,    Min Cheol%Chang%wheel633@ynu.ac.kr%1,    Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
+ In addition, we studied whether underlying neurological diseases are risk factors for death.
+Methods
+In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
+ We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
+Results
+In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
+ However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
+ The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
+Conclusions
+Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
+</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,     Ju-Hyun%Kim%NULL%1,     Jin-Sung%Park%NULL%1,     Min Cheol%Chang%wheel633@ynu.ac.kr%1,     Donghwi%Park%bdome@hanmail.net%1]</t>
   </si>
 </sst>
 </file>
@@ -847,10 +931,10 @@
         <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -873,10 +957,10 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>

--- a/Covid_19_Dataset_and_References/References/19.xlsx
+++ b/Covid_19_Dataset_and_References/References/19.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
   <si>
     <t>Doi</t>
   </si>
@@ -353,90 +353,6 @@
   </si>
   <si>
     <t>PMC7177115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
- In addition, we studied whether underlying neurological diseases are risk factors for death.
-Methods
-id="Par2"&gt;In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
- We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
-Results
-id="Par3"&gt;In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
- However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
- The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
-Conclusions
-id="Par4"&gt;Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
-</t>
-  </si>
-  <si>
-    <t>[Jong-moon%Hwang%NULL%0,  Ju-Hyun%Kim%NULL%1,  Jin-Sung%Park%NULL%1,  Min Cheol%Chang%wheel633@ynu.ac.kr%1,  Donghwi%Park%bdome@hanmail.net%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The natural history of coronavirus disease 2019 (COVID-19) has yet to be fully described.
- Here, we use patient-level data from the Information System for Research in Primary Care (SIDIAP) to summarise COVID-19 outcomes in Catalonia, Spain.
- We included 5,586,521 individuals from the general population.
- Of these, 102,002 had an outpatient diagnosis of COVID-19, 16,901 were hospitalised with COVID-19, and 5273 died after either being diagnosed or hospitalised with COVID-19 between 1st March and 6th May 2020. Older age, being male, and having comorbidities were all generally associated with worse outcomes.
- These findings demonstrate the continued need to protect those at high risk of poor outcomes, particularly older people, from COVID-19 and provide appropriate care for those who develop symptomatic disease.
- While risks of hospitalisation and death were lower for younger populations, there is a need to limit their role in community transmission.
-</t>
-  </si>
-  <si>
-    <t>[Edward%Burn%NULL%1,  Cristian%Tebé%NULL%2,  Cristian%Tebé%NULL%0,  Sergio%Fernandez-Bertolin%NULL%1,  Maria%Aragon%NULL%1,  Martina%Recalde%NULL%2,  Martina%Recalde%NULL%0,  Elena%Roel%NULL%1,  Albert%Prats-Uribe%NULL%2,  Albert%Prats-Uribe%NULL%0,  Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,  Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,  Talita%Duarte-Salles%NULL%2,  Talita%Duarte-Salles%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
- In addition, we studied whether underlying neurological diseases are risk factors for death.
-Methods
-In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
- We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
-Results
-id="Par3"&gt;In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
- However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
- The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
-Conclusions
-id="Par4"&gt;Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
-</t>
-  </si>
-  <si>
-    <t>[Jong-moon%Hwang%NULL%0,   Ju-Hyun%Kim%NULL%1,   Jin-Sung%Park%NULL%1,   Min Cheol%Chang%wheel633@ynu.ac.kr%1,   Donghwi%Park%bdome@hanmail.net%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
- In addition, we studied whether underlying neurological diseases are risk factors for death.
-Methods
-In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
- We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
-Results
-In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
- However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
- The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
-Conclusions
-id="Par4"&gt;Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
-</t>
-  </si>
-  <si>
-    <t>[Jong-moon%Hwang%NULL%0,    Ju-Hyun%Kim%NULL%1,    Jin-Sung%Park%NULL%1,    Min Cheol%Chang%wheel633@ynu.ac.kr%1,    Donghwi%Park%bdome@hanmail.net%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
- In addition, we studied whether underlying neurological diseases are risk factors for death.
-Methods
-In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
- We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
-Results
-In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
- However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
- The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
-Conclusions
-Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
-</t>
-  </si>
-  <si>
-    <t>[Jong-moon%Hwang%NULL%0,     Ju-Hyun%Kim%NULL%1,     Jin-Sung%Park%NULL%1,     Min Cheol%Chang%wheel633@ynu.ac.kr%1,     Donghwi%Park%bdome@hanmail.net%1]</t>
   </si>
 </sst>
 </file>
@@ -931,10 +847,10 @@
         <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -957,10 +873,10 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>

--- a/Covid_19_Dataset_and_References/References/19.xlsx
+++ b/Covid_19_Dataset_and_References/References/19.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="87">
   <si>
     <t>Doi</t>
   </si>
@@ -353,6 +353,48 @@
   </si>
   <si>
     <t>PMC7177115</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,  Jane A H%Masoli%NULL%2,  Jane A H%Masoli%NULL%0,  Joao%Delgado%NULL%2,  Joao%Delgado%NULL%0,  Luke C%Pilling%NULL%2,  Luke C%Pilling%NULL%0,  Chia-Ling%Kuo%NULL%2,  Chia-Ling%Kuo%NULL%0,  George A%Kuchel%NULL%2,  George A%Kuchel%NULL%0,  David%Melzer%D.Melzer@exeter.ac.uk%1,  Anne B%Newman%NULL%2,  Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,  R.%Rozzini%NULL%1,  F.%Guerini%NULL%1,  S.%Boffelli%NULL%1,  P.%Ranieri%NULL%1,  G.%Minelli%NULL%1,  L.%Bianchetti%NULL%1,  M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,  Juan%Wu%NULL%1,  Lihua%Ni%NULL%1,  Qinqin%Luo%NULL%1,  Cheng%Yuan%NULL%1,  Fang%Fan%NULL%1,  Hong%Liu%NULL%2,  Changjiang%Zhang%NULL%1,  Yuandi%Xiang%NULL%1,  Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,  Bea%Mellaerts%NULL%1,  Hannelore%Vandewinckele%NULL%1,  Peter%Lybeert%NULL%1,  Eric%Frans%NULL%1,  Sara%Ombelet%NULL%1,  Wim%Lemahieu%NULL%1,  Rolf%Symons%NULL%0,  Erwin%Ho%NULL%1,  Johan%Frans%NULL%0,  Annick%Smismans%NULL%1,  Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,  Giuseppe%De Matteis%NULL%2,  Giuseppe%De Matteis%NULL%0,  Michele%Santoro%NULL%1,  Luca%Sabia%NULL%1,  Benedetta%Simeoni%NULL%1,  Marcello%Candelli%NULL%1,  Veronica%Ojetti%NULL%1,  Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,  Mathilda%Alsen%NULL%2,  Mathilda%Alsen%NULL%0,  Christine%Little%NULL%1,  Joshua%Barlow%NULL%1,  Eric%Genden%NULL%1,  Leonard%Naymagon%NULL%1,  Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,  Ju-Hyun%Kim%NULL%1,  Jin-Sung%Park%NULL%1,  Min Cheol%Chang%wheel633@ynu.ac.kr%1,  Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,  Cristian%Tebé%NULL%2,  Cristian%Tebé%NULL%0,  Sergio%Fernandez-Bertolin%NULL%1,  Maria%Aragon%NULL%1,  Martina%Recalde%NULL%2,  Martina%Recalde%NULL%0,  Elena%Roel%NULL%1,  Albert%Prats-Uribe%NULL%2,  Albert%Prats-Uribe%NULL%0,  Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,  Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,  Talita%Duarte-Salles%NULL%2,  Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,  Massimiliano%Marino%NULL%1,  Debora%Formisano%NULL%1,  Francesco%Venturelli%NULL%1,  Massimo%Vicentini%NULL%2,  Massimo%Vicentini%NULL%0,  Roberto%Grilli%NULL%1,  NULL%NULL%NULL%0,  Gianluigi%Forloni%NULL%8,  Gianluigi%Forloni%NULL%0,  Gianluigi%Forloni%NULL%0,  Gianluigi%Forloni%NULL%0,  Gianluigi%Forloni%NULL%0,  Gianluigi%Forloni%NULL%0,  Gianluigi%Forloni%NULL%0,  Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,  Ashlyn M.%Jendro%NULL%1,  Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
   </si>
 </sst>
 </file>
@@ -679,6 +721,9 @@
       <c r="H1" t="s">
         <v>23</v>
       </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -694,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -704,6 +749,9 @@
       </c>
       <c r="H2" t="s">
         <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -720,7 +768,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -730,6 +778,9 @@
       </c>
       <c r="H3" t="s">
         <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -746,7 +797,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -756,6 +807,9 @@
       </c>
       <c r="H4" t="s">
         <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -772,7 +826,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -782,6 +836,9 @@
       </c>
       <c r="H5" t="s">
         <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -798,7 +855,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -808,6 +865,9 @@
       </c>
       <c r="H6" t="s">
         <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +884,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -834,6 +894,9 @@
       </c>
       <c r="H7" t="s">
         <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -850,7 +913,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -860,6 +923,9 @@
       </c>
       <c r="H8" t="s">
         <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -876,7 +942,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -886,6 +952,9 @@
       </c>
       <c r="H9" t="s">
         <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -902,7 +971,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -912,6 +981,9 @@
       </c>
       <c r="H10" t="s">
         <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -928,7 +1000,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -938,6 +1010,9 @@
       </c>
       <c r="H11" t="s">
         <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/19.xlsx
+++ b/Covid_19_Dataset_and_References/References/19.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="127">
   <si>
     <t>Doi</t>
   </si>
@@ -395,6 +395,126 @@
   </si>
   <si>
     <t>[Sanjana P.%Padala%NULL%1,  Ashlyn M.%Jendro%NULL%1,  Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,   Jane A H%Masoli%NULL%2,   Jane A H%Masoli%NULL%0,   Joao%Delgado%NULL%2,   Joao%Delgado%NULL%0,   Luke C%Pilling%NULL%2,   Luke C%Pilling%NULL%0,   Chia-Ling%Kuo%NULL%2,   Chia-Ling%Kuo%NULL%0,   George A%Kuchel%NULL%2,   George A%Kuchel%NULL%0,   David%Melzer%D.Melzer@exeter.ac.uk%1,   Anne B%Newman%NULL%2,   Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,   R.%Rozzini%NULL%1,   F.%Guerini%NULL%1,   S.%Boffelli%NULL%1,   P.%Ranieri%NULL%1,   G.%Minelli%NULL%1,   L.%Bianchetti%NULL%1,   M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,   Juan%Wu%NULL%1,   Lihua%Ni%NULL%1,   Qinqin%Luo%NULL%1,   Cheng%Yuan%NULL%1,   Fang%Fan%NULL%1,   Hong%Liu%NULL%0,   Changjiang%Zhang%NULL%1,   Yuandi%Xiang%NULL%1,   Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,   Bea%Mellaerts%NULL%1,   Hannelore%Vandewinckele%NULL%1,   Peter%Lybeert%NULL%1,   Eric%Frans%NULL%1,   Sara%Ombelet%NULL%1,   Wim%Lemahieu%NULL%1,   Rolf%Symons%NULL%3,   Erwin%Ho%NULL%1,   Johan%Frans%NULL%2,   Annick%Smismans%NULL%1,   Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,   Giuseppe%De Matteis%NULL%2,   Giuseppe%De Matteis%NULL%0,   Michele%Santoro%NULL%1,   Luca%Sabia%NULL%1,   Benedetta%Simeoni%NULL%1,   Marcello%Candelli%NULL%1,   Veronica%Ojetti%NULL%1,   Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,   Mathilda%Alsen%NULL%2,   Mathilda%Alsen%NULL%0,   Christine%Little%NULL%1,   Joshua%Barlow%NULL%1,   Eric%Genden%NULL%1,   Leonard%Naymagon%NULL%1,   Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,   Ju-Hyun%Kim%NULL%1,   Jin-Sung%Park%NULL%1,   Min Cheol%Chang%wheel633@ynu.ac.kr%1,   Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,   Cristian%Tebé%NULL%2,   Cristian%Tebé%NULL%0,   Sergio%Fernandez-Bertolin%NULL%1,   Maria%Aragon%NULL%1,   Martina%Recalde%NULL%2,   Martina%Recalde%NULL%0,   Elena%Roel%NULL%1,   Albert%Prats-Uribe%NULL%2,   Albert%Prats-Uribe%NULL%0,   Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,   Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,   Talita%Duarte-Salles%NULL%2,   Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,   Massimiliano%Marino%NULL%1,   Debora%Formisano%NULL%1,   Francesco%Venturelli%NULL%1,   Massimo%Vicentini%NULL%2,   Massimo%Vicentini%NULL%0,   Roberto%Grilli%NULL%1,   NULL%NULL%NULL%0,   Gianluigi%Forloni%NULL%8,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,   Ashlyn M.%Jendro%NULL%1,   Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,    Jane A H%Masoli%NULL%2,    Jane A H%Masoli%NULL%0,    Joao%Delgado%NULL%2,    Joao%Delgado%NULL%0,    Luke C%Pilling%NULL%2,    Luke C%Pilling%NULL%0,    Chia-Ling%Kuo%NULL%2,    Chia-Ling%Kuo%NULL%0,    George A%Kuchel%NULL%2,    George A%Kuchel%NULL%0,    David%Melzer%D.Melzer@exeter.ac.uk%1,    Anne B%Newman%NULL%2,    Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,    R.%Rozzini%NULL%1,    F.%Guerini%NULL%1,    S.%Boffelli%NULL%1,    P.%Ranieri%NULL%1,    G.%Minelli%NULL%1,    L.%Bianchetti%NULL%1,    M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,    Juan%Wu%NULL%1,    Lihua%Ni%NULL%1,    Qinqin%Luo%NULL%1,    Cheng%Yuan%NULL%1,    Fang%Fan%NULL%1,    Hong%Liu%NULL%0,    Changjiang%Zhang%NULL%1,    Yuandi%Xiang%NULL%1,    Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,    Bea%Mellaerts%NULL%1,    Hannelore%Vandewinckele%NULL%1,    Peter%Lybeert%NULL%1,    Eric%Frans%NULL%1,    Sara%Ombelet%NULL%1,    Wim%Lemahieu%NULL%1,    Rolf%Symons%NULL%3,    Erwin%Ho%NULL%1,    Johan%Frans%NULL%2,    Annick%Smismans%NULL%1,    Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,    Giuseppe%De Matteis%NULL%2,    Giuseppe%De Matteis%NULL%0,    Michele%Santoro%NULL%1,    Luca%Sabia%NULL%1,    Benedetta%Simeoni%NULL%1,    Marcello%Candelli%NULL%1,    Veronica%Ojetti%NULL%1,    Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,    Mathilda%Alsen%NULL%2,    Mathilda%Alsen%NULL%0,    Christine%Little%NULL%1,    Joshua%Barlow%NULL%1,    Eric%Genden%NULL%1,    Leonard%Naymagon%NULL%1,    Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,    Ju-Hyun%Kim%NULL%1,    Jin-Sung%Park%NULL%1,    Min Cheol%Chang%wheel633@ynu.ac.kr%1,    Donghwi%Park%bdome@hanmail.net%2]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,    Cristian%Tebé%NULL%2,    Cristian%Tebé%NULL%0,    Sergio%Fernandez-Bertolin%NULL%1,    Maria%Aragon%NULL%1,    Martina%Recalde%NULL%2,    Martina%Recalde%NULL%0,    Elena%Roel%NULL%1,    Albert%Prats-Uribe%NULL%2,    Albert%Prats-Uribe%NULL%0,    Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,    Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,    Talita%Duarte-Salles%NULL%2,    Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,    Massimiliano%Marino%NULL%1,    Debora%Formisano%NULL%1,    Francesco%Venturelli%NULL%1,    Massimo%Vicentini%NULL%2,    Massimo%Vicentini%NULL%0,    Roberto%Grilli%NULL%1,    NULL%NULL%NULL%0,    Gianluigi%Forloni%NULL%8,    Gianluigi%Forloni%NULL%0,    Gianluigi%Forloni%NULL%0,    Gianluigi%Forloni%NULL%0,    Gianluigi%Forloni%NULL%0,    Gianluigi%Forloni%NULL%0,    Gianluigi%Forloni%NULL%0,    Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,    Ashlyn M.%Jendro%NULL%1,    Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,     Jane A H%Masoli%NULL%2,     Jane A H%Masoli%NULL%0,     Joao%Delgado%NULL%2,     Joao%Delgado%NULL%0,     Luke C%Pilling%NULL%2,     Luke C%Pilling%NULL%0,     Chia-Ling%Kuo%NULL%2,     Chia-Ling%Kuo%NULL%0,     George A%Kuchel%NULL%2,     George A%Kuchel%NULL%0,     David%Melzer%D.Melzer@exeter.ac.uk%1,     Anne B%Newman%NULL%2,     Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,     R.%Rozzini%NULL%1,     F.%Guerini%NULL%1,     S.%Boffelli%NULL%1,     P.%Ranieri%NULL%1,     G.%Minelli%NULL%1,     L.%Bianchetti%NULL%1,     M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,     Juan%Wu%NULL%1,     Lihua%Ni%NULL%1,     Qinqin%Luo%NULL%1,     Cheng%Yuan%NULL%1,     Fang%Fan%NULL%1,     Hong%Liu%NULL%0,     Changjiang%Zhang%NULL%1,     Yuandi%Xiang%NULL%1,     Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,     Bea%Mellaerts%NULL%1,     Hannelore%Vandewinckele%NULL%1,     Peter%Lybeert%NULL%1,     Eric%Frans%NULL%1,     Sara%Ombelet%NULL%1,     Wim%Lemahieu%NULL%1,     Rolf%Symons%NULL%3,     Erwin%Ho%NULL%1,     Johan%Frans%NULL%2,     Annick%Smismans%NULL%1,     Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,     Giuseppe%De Matteis%NULL%2,     Giuseppe%De Matteis%NULL%0,     Michele%Santoro%NULL%1,     Luca%Sabia%NULL%1,     Benedetta%Simeoni%NULL%1,     Marcello%Candelli%NULL%1,     Veronica%Ojetti%NULL%1,     Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,     Mathilda%Alsen%NULL%2,     Mathilda%Alsen%NULL%0,     Christine%Little%NULL%1,     Joshua%Barlow%NULL%1,     Eric%Genden%NULL%1,     Leonard%Naymagon%NULL%1,     Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,     Ju-Hyun%Kim%NULL%1,     Jin-Sung%Park%NULL%1,     Min Cheol%Chang%wheel633@ynu.ac.kr%1,     Donghwi%Park%bdome@hanmail.net%2]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,     Cristian%Tebé%NULL%2,     Cristian%Tebé%NULL%0,     Sergio%Fernandez-Bertolin%NULL%1,     Maria%Aragon%NULL%1,     Martina%Recalde%NULL%2,     Martina%Recalde%NULL%0,     Elena%Roel%NULL%1,     Albert%Prats-Uribe%NULL%2,     Albert%Prats-Uribe%NULL%0,     Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,     Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,     Talita%Duarte-Salles%NULL%2,     Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,     Massimiliano%Marino%NULL%1,     Debora%Formisano%NULL%1,     Francesco%Venturelli%NULL%1,     Massimo%Vicentini%NULL%2,     Massimo%Vicentini%NULL%0,     Roberto%Grilli%NULL%1,     NULL%NULL%NULL%0,     Gianluigi%Forloni%NULL%8,     Gianluigi%Forloni%NULL%0,     Gianluigi%Forloni%NULL%0,     Gianluigi%Forloni%NULL%0,     Gianluigi%Forloni%NULL%0,     Gianluigi%Forloni%NULL%0,     Gianluigi%Forloni%NULL%0,     Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,     Ashlyn M.%Jendro%NULL%1,     Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,      Jane A H%Masoli%NULL%2,      Jane A H%Masoli%NULL%0,      Joao%Delgado%NULL%2,      Joao%Delgado%NULL%0,      Luke C%Pilling%NULL%2,      Luke C%Pilling%NULL%0,      Chia-Ling%Kuo%NULL%2,      Chia-Ling%Kuo%NULL%0,      George A%Kuchel%NULL%2,      George A%Kuchel%NULL%0,      David%Melzer%D.Melzer@exeter.ac.uk%1,      Anne B%Newman%NULL%2,      Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,      R.%Rozzini%NULL%1,      F.%Guerini%NULL%1,      S.%Boffelli%NULL%1,      P.%Ranieri%NULL%1,      G.%Minelli%NULL%1,      L.%Bianchetti%NULL%1,      M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,      Juan%Wu%NULL%1,      Lihua%Ni%NULL%1,      Qinqin%Luo%NULL%1,      Cheng%Yuan%NULL%1,      Fang%Fan%NULL%1,      Hong%Liu%NULL%0,      Changjiang%Zhang%NULL%1,      Yuandi%Xiang%NULL%1,      Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,      Bea%Mellaerts%NULL%1,      Hannelore%Vandewinckele%NULL%1,      Peter%Lybeert%NULL%1,      Eric%Frans%NULL%1,      Sara%Ombelet%NULL%1,      Wim%Lemahieu%NULL%1,      Rolf%Symons%NULL%3,      Erwin%Ho%NULL%1,      Johan%Frans%NULL%2,      Annick%Smismans%NULL%1,      Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,      Giuseppe%De Matteis%NULL%2,      Giuseppe%De Matteis%NULL%0,      Michele%Santoro%NULL%1,      Luca%Sabia%NULL%1,      Benedetta%Simeoni%NULL%1,      Marcello%Candelli%NULL%1,      Veronica%Ojetti%NULL%1,      Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,      Mathilda%Alsen%NULL%2,      Mathilda%Alsen%NULL%0,      Christine%Little%NULL%1,      Joshua%Barlow%NULL%1,      Eric%Genden%NULL%1,      Leonard%Naymagon%NULL%1,      Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,      Ju-Hyun%Kim%NULL%1,      Jin-Sung%Park%NULL%1,      Min Cheol%Chang%wheel633@ynu.ac.kr%1,      Donghwi%Park%bdome@hanmail.net%2]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,      Cristian%Tebé%NULL%2,      Cristian%Tebé%NULL%0,      Sergio%Fernandez-Bertolin%NULL%1,      Maria%Aragon%NULL%1,      Martina%Recalde%NULL%2,      Martina%Recalde%NULL%0,      Elena%Roel%NULL%1,      Albert%Prats-Uribe%NULL%2,      Albert%Prats-Uribe%NULL%0,      Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,      Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,      Talita%Duarte-Salles%NULL%2,      Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,      Massimiliano%Marino%NULL%1,      Debora%Formisano%NULL%1,      Francesco%Venturelli%NULL%1,      Massimo%Vicentini%NULL%2,      Massimo%Vicentini%NULL%0,      Roberto%Grilli%NULL%1,      NULL%NULL%NULL%0,      Gianluigi%Forloni%NULL%8,      Gianluigi%Forloni%NULL%0,      Gianluigi%Forloni%NULL%0,      Gianluigi%Forloni%NULL%0,      Gianluigi%Forloni%NULL%0,      Gianluigi%Forloni%NULL%0,      Gianluigi%Forloni%NULL%0,      Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,      Ashlyn M.%Jendro%NULL%1,      Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
   </si>
 </sst>
 </file>
@@ -739,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -768,7 +888,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -797,7 +917,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -826,7 +946,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -855,7 +975,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -884,7 +1004,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -913,7 +1033,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -942,7 +1062,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -971,7 +1091,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1000,7 +1120,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>

--- a/Covid_19_Dataset_and_References/References/19.xlsx
+++ b/Covid_19_Dataset_and_References/References/19.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="147">
   <si>
     <t>Doi</t>
   </si>
@@ -515,6 +515,66 @@
   </si>
   <si>
     <t>[Sanjana P.%Padala%NULL%1,      Ashlyn M.%Jendro%NULL%1,      Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,       Jane A H%Masoli%NULL%2,       Jane A H%Masoli%NULL%0,       Joao%Delgado%NULL%2,       Joao%Delgado%NULL%0,       Luke C%Pilling%NULL%2,       Luke C%Pilling%NULL%0,       Chia-Ling%Kuo%NULL%2,       Chia-Ling%Kuo%NULL%0,       George A%Kuchel%NULL%2,       George A%Kuchel%NULL%0,       David%Melzer%D.Melzer@exeter.ac.uk%1,       Anne B%Newman%NULL%2,       Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,       R.%Rozzini%NULL%1,       F.%Guerini%NULL%1,       S.%Boffelli%NULL%1,       P.%Ranieri%NULL%1,       G.%Minelli%NULL%1,       L.%Bianchetti%NULL%1,       M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,       Juan%Wu%NULL%1,       Lihua%Ni%NULL%1,       Qinqin%Luo%NULL%1,       Cheng%Yuan%NULL%1,       Fang%Fan%NULL%1,       Hong%Liu%NULL%0,       Changjiang%Zhang%NULL%1,       Yuandi%Xiang%NULL%1,       Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,       Bea%Mellaerts%NULL%1,       Hannelore%Vandewinckele%NULL%1,       Peter%Lybeert%NULL%1,       Eric%Frans%NULL%1,       Sara%Ombelet%NULL%1,       Wim%Lemahieu%NULL%1,       Rolf%Symons%NULL%3,       Erwin%Ho%NULL%1,       Johan%Frans%NULL%2,       Annick%Smismans%NULL%1,       Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,       Giuseppe%De Matteis%NULL%2,       Giuseppe%De Matteis%NULL%0,       Michele%Santoro%NULL%1,       Luca%Sabia%NULL%1,       Benedetta%Simeoni%NULL%1,       Marcello%Candelli%NULL%1,       Veronica%Ojetti%NULL%1,       Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,       Mathilda%Alsen%NULL%2,       Mathilda%Alsen%NULL%0,       Christine%Little%NULL%1,       Joshua%Barlow%NULL%1,       Eric%Genden%NULL%1,       Leonard%Naymagon%NULL%1,       Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,       Ju-Hyun%Kim%NULL%1,       Jin-Sung%Park%NULL%1,       Min Cheol%Chang%wheel633@ynu.ac.kr%1,       Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,       Cristian%Tebé%NULL%2,       Cristian%Tebé%NULL%0,       Sergio%Fernandez-Bertolin%NULL%1,       Maria%Aragon%NULL%1,       Martina%Recalde%NULL%2,       Martina%Recalde%NULL%0,       Elena%Roel%NULL%1,       Albert%Prats-Uribe%NULL%2,       Albert%Prats-Uribe%NULL%0,       Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,       Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,       Talita%Duarte-Salles%NULL%2,       Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,       Massimiliano%Marino%NULL%1,       Debora%Formisano%NULL%1,       Francesco%Venturelli%NULL%1,       Massimo%Vicentini%NULL%2,       Massimo%Vicentini%NULL%0,       Roberto%Grilli%NULL%1,       NULL%NULL%NULL%0,       Gianluigi%Forloni%NULL%8,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,       Ashlyn M.%Jendro%NULL%1,       Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,        Jane A H%Masoli%NULL%2,        Jane A H%Masoli%NULL%0,        Joao%Delgado%NULL%2,        Joao%Delgado%NULL%0,        Luke C%Pilling%NULL%2,        Luke C%Pilling%NULL%0,        Chia-Ling%Kuo%NULL%2,        Chia-Ling%Kuo%NULL%0,        George A%Kuchel%NULL%2,        George A%Kuchel%NULL%0,        David%Melzer%D.Melzer@exeter.ac.uk%1,        Anne B%Newman%NULL%2,        Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,        R.%Rozzini%NULL%1,        F.%Guerini%NULL%1,        S.%Boffelli%NULL%1,        P.%Ranieri%NULL%1,        G.%Minelli%NULL%1,        L.%Bianchetti%NULL%1,        M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,        Juan%Wu%NULL%1,        Lihua%Ni%NULL%1,        Qinqin%Luo%NULL%1,        Cheng%Yuan%NULL%1,        Fang%Fan%NULL%1,        Hong%Liu%NULL%0,        Changjiang%Zhang%NULL%1,        Yuandi%Xiang%NULL%1,        Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,        Bea%Mellaerts%NULL%1,        Hannelore%Vandewinckele%NULL%1,        Peter%Lybeert%NULL%1,        Eric%Frans%NULL%1,        Sara%Ombelet%NULL%1,        Wim%Lemahieu%NULL%1,        Rolf%Symons%NULL%3,        Erwin%Ho%NULL%1,        Johan%Frans%NULL%2,        Annick%Smismans%NULL%1,        Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,        Giuseppe%De Matteis%NULL%2,        Giuseppe%De Matteis%NULL%0,        Michele%Santoro%NULL%1,        Luca%Sabia%NULL%1,        Benedetta%Simeoni%NULL%1,        Marcello%Candelli%NULL%1,        Veronica%Ojetti%NULL%1,        Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,        Mathilda%Alsen%NULL%2,        Mathilda%Alsen%NULL%0,        Christine%Little%NULL%1,        Joshua%Barlow%NULL%1,        Eric%Genden%NULL%1,        Leonard%Naymagon%NULL%1,        Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,        Ju-Hyun%Kim%NULL%1,        Jin-Sung%Park%NULL%1,        Min Cheol%Chang%wheel633@ynu.ac.kr%1,        Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,        Cristian%Tebé%NULL%2,        Cristian%Tebé%NULL%0,        Sergio%Fernandez-Bertolin%NULL%1,        Maria%Aragon%NULL%1,        Martina%Recalde%NULL%2,        Martina%Recalde%NULL%0,        Elena%Roel%NULL%1,        Albert%Prats-Uribe%NULL%2,        Albert%Prats-Uribe%NULL%0,        Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,        Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,        Talita%Duarte-Salles%NULL%2,        Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,        Massimiliano%Marino%NULL%1,        Debora%Formisano%NULL%1,        Francesco%Venturelli%NULL%1,        Massimo%Vicentini%NULL%2,        Massimo%Vicentini%NULL%0,        Roberto%Grilli%NULL%1,        NULL%NULL%NULL%0,        Gianluigi%Forloni%NULL%8,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,        Ashlyn M.%Jendro%NULL%1,        Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
   </si>
 </sst>
 </file>
@@ -859,7 +919,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -888,7 +948,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -917,7 +977,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -946,7 +1006,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -975,7 +1035,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1004,7 +1064,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1033,7 +1093,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1062,7 +1122,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1091,7 +1151,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1120,7 +1180,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>

--- a/Covid_19_Dataset_and_References/References/19.xlsx
+++ b/Covid_19_Dataset_and_References/References/19.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="167">
   <si>
     <t>Doi</t>
   </si>
@@ -575,6 +575,66 @@
   </si>
   <si>
     <t>[Sanjana P.%Padala%NULL%1,        Ashlyn M.%Jendro%NULL%1,        Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,         Jane A H%Masoli%NULL%2,         Jane A H%Masoli%NULL%0,         Joao%Delgado%NULL%2,         Joao%Delgado%NULL%0,         Luke C%Pilling%NULL%2,         Luke C%Pilling%NULL%0,         Chia-Ling%Kuo%NULL%2,         Chia-Ling%Kuo%NULL%0,         George A%Kuchel%NULL%2,         George A%Kuchel%NULL%0,         David%Melzer%D.Melzer@exeter.ac.uk%1,         Anne B%Newman%NULL%2,         Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,         R.%Rozzini%NULL%1,         F.%Guerini%NULL%1,         S.%Boffelli%NULL%1,         P.%Ranieri%NULL%1,         G.%Minelli%NULL%1,         L.%Bianchetti%NULL%1,         M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,         Juan%Wu%NULL%1,         Lihua%Ni%NULL%1,         Qinqin%Luo%NULL%1,         Cheng%Yuan%NULL%1,         Fang%Fan%NULL%1,         Hong%Liu%NULL%0,         Changjiang%Zhang%NULL%1,         Yuandi%Xiang%NULL%1,         Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,         Bea%Mellaerts%NULL%1,         Hannelore%Vandewinckele%NULL%1,         Peter%Lybeert%NULL%1,         Eric%Frans%NULL%1,         Sara%Ombelet%NULL%1,         Wim%Lemahieu%NULL%1,         Rolf%Symons%NULL%3,         Erwin%Ho%NULL%1,         Johan%Frans%NULL%2,         Annick%Smismans%NULL%1,         Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,         Giuseppe%De Matteis%NULL%2,         Giuseppe%De Matteis%NULL%0,         Michele%Santoro%NULL%1,         Luca%Sabia%NULL%1,         Benedetta%Simeoni%NULL%1,         Marcello%Candelli%NULL%1,         Veronica%Ojetti%NULL%1,         Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,         Mathilda%Alsen%NULL%2,         Mathilda%Alsen%NULL%0,         Christine%Little%NULL%1,         Joshua%Barlow%NULL%1,         Eric%Genden%NULL%1,         Leonard%Naymagon%NULL%1,         Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,         Ju-Hyun%Kim%NULL%1,         Jin-Sung%Park%NULL%1,         Min Cheol%Chang%wheel633@ynu.ac.kr%1,         Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,         Cristian%Tebé%NULL%2,         Cristian%Tebé%NULL%0,         Sergio%Fernandez-Bertolin%NULL%1,         Maria%Aragon%NULL%1,         Martina%Recalde%NULL%2,         Martina%Recalde%NULL%0,         Elena%Roel%NULL%1,         Albert%Prats-Uribe%NULL%2,         Albert%Prats-Uribe%NULL%0,         Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,         Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,         Talita%Duarte-Salles%NULL%2,         Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,         Massimiliano%Marino%NULL%1,         Debora%Formisano%NULL%1,         Francesco%Venturelli%NULL%1,         Massimo%Vicentini%NULL%2,         Massimo%Vicentini%NULL%0,         Roberto%Grilli%NULL%1,         NULL%NULL%NULL%0,         Gianluigi%Forloni%NULL%8,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,         Ashlyn M.%Jendro%NULL%1,         Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,          Jane A H%Masoli%NULL%2,          Jane A H%Masoli%NULL%0,          Joao%Delgado%NULL%2,          Joao%Delgado%NULL%0,          Luke C%Pilling%NULL%2,          Luke C%Pilling%NULL%0,          Chia-Ling%Kuo%NULL%2,          Chia-Ling%Kuo%NULL%0,          George A%Kuchel%NULL%2,          George A%Kuchel%NULL%0,          David%Melzer%D.Melzer@exeter.ac.uk%1,          Anne B%Newman%NULL%2,          Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,          R.%Rozzini%NULL%1,          F.%Guerini%NULL%1,          S.%Boffelli%NULL%1,          P.%Ranieri%NULL%1,          G.%Minelli%NULL%1,          L.%Bianchetti%NULL%1,          M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,          Juan%Wu%NULL%1,          Lihua%Ni%NULL%1,          Qinqin%Luo%NULL%1,          Cheng%Yuan%NULL%1,          Fang%Fan%NULL%1,          Hong%Liu%NULL%0,          Changjiang%Zhang%NULL%1,          Yuandi%Xiang%NULL%1,          Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,          Bea%Mellaerts%NULL%1,          Hannelore%Vandewinckele%NULL%1,          Peter%Lybeert%NULL%1,          Eric%Frans%NULL%1,          Sara%Ombelet%NULL%1,          Wim%Lemahieu%NULL%1,          Rolf%Symons%NULL%3,          Erwin%Ho%NULL%1,          Johan%Frans%NULL%2,          Annick%Smismans%NULL%1,          Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,          Giuseppe%De Matteis%NULL%2,          Giuseppe%De Matteis%NULL%0,          Michele%Santoro%NULL%1,          Luca%Sabia%NULL%1,          Benedetta%Simeoni%NULL%1,          Marcello%Candelli%NULL%1,          Veronica%Ojetti%NULL%1,          Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,          Mathilda%Alsen%NULL%2,          Mathilda%Alsen%NULL%0,          Christine%Little%NULL%1,          Joshua%Barlow%NULL%1,          Eric%Genden%NULL%1,          Leonard%Naymagon%NULL%1,          Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,          Ju-Hyun%Kim%NULL%1,          Jin-Sung%Park%NULL%1,          Min Cheol%Chang%wheel633@ynu.ac.kr%1,          Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,          Cristian%Tebé%NULL%2,          Cristian%Tebé%NULL%0,          Sergio%Fernandez-Bertolin%NULL%1,          Maria%Aragon%NULL%1,          Martina%Recalde%NULL%2,          Martina%Recalde%NULL%0,          Elena%Roel%NULL%1,          Albert%Prats-Uribe%NULL%2,          Albert%Prats-Uribe%NULL%0,          Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,          Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,          Talita%Duarte-Salles%NULL%2,          Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,          Massimiliano%Marino%NULL%1,          Debora%Formisano%NULL%1,          Francesco%Venturelli%NULL%1,          Massimo%Vicentini%NULL%2,          Massimo%Vicentini%NULL%0,          Roberto%Grilli%NULL%1,          NULL%NULL%NULL%0,          Gianluigi%Forloni%NULL%8,          Gianluigi%Forloni%NULL%0,          Gianluigi%Forloni%NULL%0,          Gianluigi%Forloni%NULL%0,          Gianluigi%Forloni%NULL%0,          Gianluigi%Forloni%NULL%0,          Gianluigi%Forloni%NULL%0,          Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,          Ashlyn M.%Jendro%NULL%1,          Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
   </si>
 </sst>
 </file>
@@ -919,7 +979,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -948,7 +1008,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -977,7 +1037,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1006,7 +1066,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1035,7 +1095,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1064,7 +1124,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1093,7 +1153,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1122,7 +1182,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1151,7 +1211,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1180,7 +1240,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>

--- a/Covid_19_Dataset_and_References/References/19.xlsx
+++ b/Covid_19_Dataset_and_References/References/19.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="189">
   <si>
     <t>Doi</t>
   </si>
@@ -635,6 +635,90 @@
   </si>
   <si>
     <t>[Sanjana P.%Padala%NULL%1,          Ashlyn M.%Jendro%NULL%1,          Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,           Jane A H%Masoli%NULL%2,           Jane A H%Masoli%NULL%0,           Joao%Delgado%NULL%2,           Joao%Delgado%NULL%0,           Luke C%Pilling%NULL%2,           Luke C%Pilling%NULL%0,           Chia-Ling%Kuo%NULL%2,           Chia-Ling%Kuo%NULL%0,           George A%Kuchel%NULL%2,           George A%Kuchel%NULL%0,           David%Melzer%D.Melzer@exeter.ac.uk%1,           Anne B%Newman%NULL%2,           Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,           R.%Rozzini%NULL%1,           F.%Guerini%NULL%1,           S.%Boffelli%NULL%1,           P.%Ranieri%NULL%1,           G.%Minelli%NULL%1,           L.%Bianchetti%NULL%1,           M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,           Juan%Wu%NULL%1,           Lihua%Ni%NULL%1,           Qinqin%Luo%NULL%1,           Cheng%Yuan%NULL%1,           Fang%Fan%NULL%1,           Hong%Liu%NULL%0,           Changjiang%Zhang%NULL%1,           Yuandi%Xiang%NULL%1,           Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,           Bea%Mellaerts%NULL%1,           Hannelore%Vandewinckele%NULL%1,           Peter%Lybeert%NULL%1,           Eric%Frans%NULL%1,           Sara%Ombelet%NULL%1,           Wim%Lemahieu%NULL%1,           Rolf%Symons%NULL%3,           Erwin%Ho%NULL%1,           Johan%Frans%NULL%2,           Annick%Smismans%NULL%1,           Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,           Giuseppe%De Matteis%NULL%2,           Giuseppe%De Matteis%NULL%0,           Michele%Santoro%NULL%1,           Luca%Sabia%NULL%1,           Benedetta%Simeoni%NULL%1,           Marcello%Candelli%NULL%1,           Veronica%Ojetti%NULL%1,           Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,           Mathilda%Alsen%NULL%2,           Mathilda%Alsen%NULL%0,           Christine%Little%NULL%1,           Joshua%Barlow%NULL%1,           Eric%Genden%NULL%1,           Leonard%Naymagon%NULL%1,           Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
+ In addition, we studied whether underlying neurological diseases are risk factors for death.
+Methods
+In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
+ We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
+Results
+In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
+ However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
+ The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
+Conclusions
+Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
+</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,           Ju-Hyun%Kim%NULL%1,           Jin-Sung%Park%NULL%1,           Min Cheol%Chang%wheel633@ynu.ac.kr%1,           Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The natural history of coronavirus disease 2019 (COVID-19) has yet to be fully described.
+ Here, we use patient-level data from the Information System for Research in Primary Care (SIDIAP) to summarise COVID-19 outcomes in Catalonia, Spain.
+ We included 5,586,521 individuals from the general population.
+ Of these, 102,002 had an outpatient diagnosis of COVID-19, 16,901 were hospitalised with COVID-19, and 5273 died after either being diagnosed or hospitalised with COVID-19 between 1st March and 6th May 2020. Older age, being male, and having comorbidities were all generally associated with worse outcomes.
+ These findings demonstrate the continued need to protect those at high risk of poor outcomes, particularly older people, from COVID-19 and provide appropriate care for those who develop symptomatic disease.
+ While risks of hospitalisation and death were lower for younger populations, there is a need to limit their role in community transmission.
+</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,           Cristian%Tebé%NULL%2,           Cristian%Tebé%NULL%0,           Sergio%Fernandez-Bertolin%NULL%1,           Maria%Aragon%NULL%1,           Martina%Recalde%NULL%2,           Martina%Recalde%NULL%0,           Elena%Roel%NULL%1,           Albert%Prats-Uribe%NULL%2,           Albert%Prats-Uribe%NULL%0,           Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,           Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,           Talita%Duarte-Salles%NULL%2,           Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,           Massimiliano%Marino%NULL%2,           Debora%Formisano%NULL%2,           Francesco%Venturelli%NULL%2,           Massimo%Vicentini%NULL%4,           Massimo%Vicentini%NULL%0,           Roberto%Grilli%NULL%2,           NULL%NULL%NULL%0,           Gianluigi%Forloni%NULL%16,           Gianluigi%Forloni%NULL%0,           Gianluigi%Forloni%NULL%0,           Gianluigi%Forloni%NULL%0,           Gianluigi%Forloni%NULL%0,           Gianluigi%Forloni%NULL%0,           Gianluigi%Forloni%NULL%0,           Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,           Ashlyn M.%Jendro%NULL%1,           Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,            Jane A H%Masoli%NULL%2,            Jane A H%Masoli%NULL%0,            Joao%Delgado%NULL%2,            Joao%Delgado%NULL%0,            Luke C%Pilling%NULL%2,            Luke C%Pilling%NULL%0,            Chia-Ling%Kuo%NULL%2,            Chia-Ling%Kuo%NULL%0,            George A%Kuchel%NULL%2,            George A%Kuchel%NULL%0,            David%Melzer%D.Melzer@exeter.ac.uk%1,            Anne B%Newman%NULL%2,            Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,            R.%Rozzini%NULL%1,            F.%Guerini%NULL%1,            S.%Boffelli%NULL%1,            P.%Ranieri%NULL%1,            G.%Minelli%NULL%1,            L.%Bianchetti%NULL%1,            M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,            Juan%Wu%NULL%1,            Lihua%Ni%NULL%1,            Qinqin%Luo%NULL%1,            Cheng%Yuan%NULL%1,            Fang%Fan%NULL%1,            Hong%Liu%NULL%0,            Changjiang%Zhang%NULL%1,            Yuandi%Xiang%NULL%1,            Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,            Bea%Mellaerts%NULL%1,            Hannelore%Vandewinckele%NULL%1,            Peter%Lybeert%NULL%1,            Eric%Frans%NULL%1,            Sara%Ombelet%NULL%1,            Wim%Lemahieu%NULL%1,            Rolf%Symons%NULL%3,            Erwin%Ho%NULL%1,            Johan%Frans%NULL%2,            Annick%Smismans%NULL%1,            Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,            Giuseppe%De Matteis%NULL%2,            Giuseppe%De Matteis%NULL%0,            Michele%Santoro%NULL%1,            Luca%Sabia%NULL%1,            Benedetta%Simeoni%NULL%1,            Marcello%Candelli%NULL%1,            Veronica%Ojetti%NULL%1,            Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,            Mathilda%Alsen%NULL%2,            Mathilda%Alsen%NULL%0,            Christine%Little%NULL%1,            Joshua%Barlow%NULL%1,            Eric%Genden%NULL%1,            Leonard%Naymagon%NULL%1,            Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,            Ju-Hyun%Kim%NULL%1,            Jin-Sung%Park%NULL%1,            Min Cheol%Chang%wheel633@ynu.ac.kr%1,            Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,            Cristian%Tebé%NULL%2,            Cristian%Tebé%NULL%0,            Sergio%Fernandez-Bertolin%NULL%1,            Maria%Aragon%NULL%1,            Martina%Recalde%NULL%2,            Martina%Recalde%NULL%0,            Elena%Roel%NULL%1,            Albert%Prats-Uribe%NULL%2,            Albert%Prats-Uribe%NULL%0,            Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,            Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,            Talita%Duarte-Salles%NULL%2,            Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,            Massimiliano%Marino%NULL%1,            Debora%Formisano%NULL%1,            Francesco%Venturelli%NULL%1,            Massimo%Vicentini%NULL%2,            Massimo%Vicentini%NULL%0,            Roberto%Grilli%NULL%1,            NULL%NULL%NULL%0,            Gianluigi%Forloni%NULL%8,            Gianluigi%Forloni%NULL%0,            Gianluigi%Forloni%NULL%0,            Gianluigi%Forloni%NULL%0,            Gianluigi%Forloni%NULL%0,            Gianluigi%Forloni%NULL%0,            Gianluigi%Forloni%NULL%0,            Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,            Ashlyn M.%Jendro%NULL%1,            Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
   </si>
 </sst>
 </file>
@@ -979,7 +1063,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1008,7 +1092,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1037,7 +1121,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1066,7 +1150,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1095,7 +1179,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1124,7 +1208,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1150,10 +1234,10 @@
         <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1179,10 +1263,10 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1211,7 +1295,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1240,7 +1324,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>

--- a/Covid_19_Dataset_and_References/References/19.xlsx
+++ b/Covid_19_Dataset_and_References/References/19.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="199">
   <si>
     <t>Doi</t>
   </si>
@@ -719,6 +719,36 @@
   </si>
   <si>
     <t>[Sanjana P.%Padala%NULL%1,            Ashlyn M.%Jendro%NULL%1,            Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,             Jane A H%Masoli%NULL%2,             Jane A H%Masoli%NULL%0,             Joao%Delgado%NULL%2,             Joao%Delgado%NULL%0,             Luke C%Pilling%NULL%2,             Luke C%Pilling%NULL%0,             Chia-Ling%Kuo%NULL%2,             Chia-Ling%Kuo%NULL%0,             George A%Kuchel%NULL%2,             George A%Kuchel%NULL%0,             David%Melzer%D.Melzer@exeter.ac.uk%1,             Anne B%Newman%NULL%2,             Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,             R.%Rozzini%NULL%1,             F.%Guerini%NULL%1,             S.%Boffelli%NULL%1,             P.%Ranieri%NULL%1,             G.%Minelli%NULL%1,             L.%Bianchetti%NULL%1,             M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,             Juan%Wu%NULL%1,             Lihua%Ni%NULL%1,             Qinqin%Luo%NULL%1,             Cheng%Yuan%NULL%1,             Fang%Fan%NULL%1,             Hong%Liu%NULL%0,             Changjiang%Zhang%NULL%1,             Yuandi%Xiang%NULL%1,             Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,             Bea%Mellaerts%NULL%1,             Hannelore%Vandewinckele%NULL%1,             Peter%Lybeert%NULL%1,             Eric%Frans%NULL%1,             Sara%Ombelet%NULL%1,             Wim%Lemahieu%NULL%1,             Rolf%Symons%NULL%3,             Erwin%Ho%NULL%1,             Johan%Frans%NULL%2,             Annick%Smismans%NULL%1,             Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,             Giuseppe%De Matteis%NULL%2,             Giuseppe%De Matteis%NULL%0,             Michele%Santoro%NULL%1,             Luca%Sabia%NULL%1,             Benedetta%Simeoni%NULL%1,             Marcello%Candelli%NULL%1,             Veronica%Ojetti%NULL%1,             Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,             Mathilda%Alsen%NULL%2,             Mathilda%Alsen%NULL%0,             Christine%Little%NULL%1,             Joshua%Barlow%NULL%1,             Eric%Genden%NULL%1,             Leonard%Naymagon%NULL%1,             Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,             Ju-Hyun%Kim%NULL%1,             Jin-Sung%Park%NULL%1,             Min Cheol%Chang%wheel633@ynu.ac.kr%1,             Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,             Cristian%Tebé%NULL%2,             Cristian%Tebé%NULL%0,             Sergio%Fernandez-Bertolin%NULL%1,             Maria%Aragon%NULL%1,             Martina%Recalde%NULL%2,             Martina%Recalde%NULL%0,             Elena%Roel%NULL%1,             Albert%Prats-Uribe%NULL%2,             Albert%Prats-Uribe%NULL%0,             Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,             Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,             Talita%Duarte-Salles%NULL%2,             Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,             Massimiliano%Marino%NULL%1,             Debora%Formisano%NULL%1,             Francesco%Venturelli%NULL%1,             Massimo%Vicentini%NULL%2,             Massimo%Vicentini%NULL%0,             Roberto%Grilli%NULL%1,             NULL%NULL%NULL%0,             Gianluigi%Forloni%NULL%8,             Gianluigi%Forloni%NULL%0,             Gianluigi%Forloni%NULL%0,             Gianluigi%Forloni%NULL%0,             Gianluigi%Forloni%NULL%0,             Gianluigi%Forloni%NULL%0,             Gianluigi%Forloni%NULL%0,             Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,             Ashlyn M.%Jendro%NULL%1,             Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1093,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1092,7 +1122,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1121,7 +1151,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1150,7 +1180,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1179,7 +1209,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1208,7 +1238,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1237,7 +1267,7 @@
         <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1266,7 +1296,7 @@
         <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1295,7 +1325,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1324,7 +1354,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>

--- a/Covid_19_Dataset_and_References/References/19.xlsx
+++ b/Covid_19_Dataset_and_References/References/19.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="209">
   <si>
     <t>Doi</t>
   </si>
@@ -749,6 +749,36 @@
   </si>
   <si>
     <t>[Sanjana P.%Padala%NULL%1,             Ashlyn M.%Jendro%NULL%1,             Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,              Jane A H%Masoli%NULL%2,              Jane A H%Masoli%NULL%0,              Joao%Delgado%NULL%2,              Joao%Delgado%NULL%0,              Luke C%Pilling%NULL%2,              Luke C%Pilling%NULL%0,              Chia-Ling%Kuo%NULL%2,              Chia-Ling%Kuo%NULL%0,              George A%Kuchel%NULL%2,              George A%Kuchel%NULL%0,              David%Melzer%D.Melzer@exeter.ac.uk%1,              Anne B%Newman%NULL%2,              Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,              R.%Rozzini%NULL%1,              F.%Guerini%NULL%1,              S.%Boffelli%NULL%1,              P.%Ranieri%NULL%1,              G.%Minelli%NULL%1,              L.%Bianchetti%NULL%1,              M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,              Juan%Wu%NULL%1,              Lihua%Ni%NULL%1,              Qinqin%Luo%NULL%1,              Cheng%Yuan%NULL%1,              Fang%Fan%NULL%1,              Hong%Liu%NULL%0,              Changjiang%Zhang%NULL%1,              Yuandi%Xiang%NULL%1,              Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,              Bea%Mellaerts%NULL%1,              Hannelore%Vandewinckele%NULL%1,              Peter%Lybeert%NULL%1,              Eric%Frans%NULL%1,              Sara%Ombelet%NULL%1,              Wim%Lemahieu%NULL%1,              Rolf%Symons%NULL%3,              Erwin%Ho%NULL%1,              Johan%Frans%NULL%2,              Annick%Smismans%NULL%1,              Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,              Giuseppe%De Matteis%NULL%2,              Giuseppe%De Matteis%NULL%0,              Michele%Santoro%NULL%1,              Luca%Sabia%NULL%1,              Benedetta%Simeoni%NULL%1,              Marcello%Candelli%NULL%1,              Veronica%Ojetti%NULL%1,              Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,              Mathilda%Alsen%NULL%2,              Mathilda%Alsen%NULL%0,              Christine%Little%NULL%1,              Joshua%Barlow%NULL%1,              Eric%Genden%NULL%1,              Leonard%Naymagon%NULL%1,              Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,              Ju-Hyun%Kim%NULL%1,              Jin-Sung%Park%NULL%1,              Min Cheol%Chang%wheel633@ynu.ac.kr%1,              Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,              Cristian%Tebé%NULL%2,              Cristian%Tebé%NULL%0,              Sergio%Fernandez-Bertolin%NULL%1,              Maria%Aragon%NULL%1,              Martina%Recalde%NULL%2,              Martina%Recalde%NULL%0,              Elena%Roel%NULL%1,              Albert%Prats-Uribe%NULL%2,              Albert%Prats-Uribe%NULL%0,              Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,              Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,              Talita%Duarte-Salles%NULL%2,              Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,              Massimiliano%Marino%NULL%1,              Debora%Formisano%NULL%1,              Francesco%Venturelli%NULL%1,              Massimo%Vicentini%NULL%2,              Massimo%Vicentini%NULL%0,              Roberto%Grilli%NULL%1,              NULL%NULL%NULL%0,              Gianluigi%Forloni%NULL%8,              Gianluigi%Forloni%NULL%0,              Gianluigi%Forloni%NULL%0,              Gianluigi%Forloni%NULL%0,              Gianluigi%Forloni%NULL%0,              Gianluigi%Forloni%NULL%0,              Gianluigi%Forloni%NULL%0,              Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,              Ashlyn M.%Jendro%NULL%1,              Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1123,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1122,7 +1152,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1151,7 +1181,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1180,7 +1210,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1209,7 +1239,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1238,7 +1268,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1267,7 +1297,7 @@
         <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1296,7 +1326,7 @@
         <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1325,7 +1355,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1354,7 +1384,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>

--- a/Covid_19_Dataset_and_References/References/19.xlsx
+++ b/Covid_19_Dataset_and_References/References/19.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="229">
   <si>
     <t>Doi</t>
   </si>
@@ -779,6 +779,66 @@
   </si>
   <si>
     <t>[Sanjana P.%Padala%NULL%1,              Ashlyn M.%Jendro%NULL%1,              Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,               Jane A H%Masoli%NULL%2,               Jane A H%Masoli%NULL%0,               Joao%Delgado%NULL%2,               Joao%Delgado%NULL%0,               Luke C%Pilling%NULL%2,               Luke C%Pilling%NULL%0,               Chia-Ling%Kuo%NULL%2,               Chia-Ling%Kuo%NULL%0,               George A%Kuchel%NULL%2,               George A%Kuchel%NULL%0,               David%Melzer%D.Melzer@exeter.ac.uk%1,               Anne B%Newman%NULL%2,               Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,               R.%Rozzini%NULL%1,               F.%Guerini%NULL%1,               S.%Boffelli%NULL%1,               P.%Ranieri%NULL%1,               G.%Minelli%NULL%1,               L.%Bianchetti%NULL%1,               M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,               Juan%Wu%NULL%1,               Lihua%Ni%NULL%1,               Qinqin%Luo%NULL%1,               Cheng%Yuan%NULL%1,               Fang%Fan%NULL%1,               Hong%Liu%NULL%0,               Changjiang%Zhang%NULL%1,               Yuandi%Xiang%NULL%1,               Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,               Bea%Mellaerts%NULL%1,               Hannelore%Vandewinckele%NULL%1,               Peter%Lybeert%NULL%1,               Eric%Frans%NULL%1,               Sara%Ombelet%NULL%1,               Wim%Lemahieu%NULL%1,               Rolf%Symons%NULL%3,               Erwin%Ho%NULL%1,               Johan%Frans%NULL%2,               Annick%Smismans%NULL%1,               Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,               Giuseppe%De Matteis%NULL%2,               Giuseppe%De Matteis%NULL%0,               Michele%Santoro%NULL%1,               Luca%Sabia%NULL%1,               Benedetta%Simeoni%NULL%1,               Marcello%Candelli%NULL%1,               Veronica%Ojetti%NULL%1,               Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,               Mathilda%Alsen%NULL%2,               Mathilda%Alsen%NULL%0,               Christine%Little%NULL%1,               Joshua%Barlow%NULL%1,               Eric%Genden%NULL%1,               Leonard%Naymagon%NULL%1,               Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,               Ju-Hyun%Kim%NULL%1,               Jin-Sung%Park%NULL%1,               Min Cheol%Chang%wheel633@ynu.ac.kr%1,               Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,               Cristian%Tebé%NULL%2,               Cristian%Tebé%NULL%0,               Sergio%Fernandez-Bertolin%NULL%1,               Maria%Aragon%NULL%1,               Martina%Recalde%NULL%2,               Martina%Recalde%NULL%0,               Elena%Roel%NULL%1,               Albert%Prats-Uribe%NULL%2,               Albert%Prats-Uribe%NULL%0,               Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,               Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,               Talita%Duarte-Salles%NULL%2,               Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,               Massimiliano%Marino%NULL%1,               Debora%Formisano%NULL%1,               Francesco%Venturelli%NULL%1,               Massimo%Vicentini%NULL%2,               Massimo%Vicentini%NULL%0,               Roberto%Grilli%NULL%1,               NULL%NULL%NULL%0,               Gianluigi%Forloni%NULL%8,               Gianluigi%Forloni%NULL%0,               Gianluigi%Forloni%NULL%0,               Gianluigi%Forloni%NULL%0,               Gianluigi%Forloni%NULL%0,               Gianluigi%Forloni%NULL%0,               Gianluigi%Forloni%NULL%0,               Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,               Ashlyn M.%Jendro%NULL%1,               Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,                Jane A H%Masoli%NULL%2,                Jane A H%Masoli%NULL%0,                Joao%Delgado%NULL%2,                Joao%Delgado%NULL%0,                Luke C%Pilling%NULL%2,                Luke C%Pilling%NULL%0,                Chia-Ling%Kuo%NULL%2,                Chia-Ling%Kuo%NULL%0,                George A%Kuchel%NULL%2,                George A%Kuchel%NULL%0,                David%Melzer%D.Melzer@exeter.ac.uk%1,                Anne B%Newman%NULL%2,                Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,                R.%Rozzini%NULL%1,                F.%Guerini%NULL%1,                S.%Boffelli%NULL%1,                P.%Ranieri%NULL%1,                G.%Minelli%NULL%1,                L.%Bianchetti%NULL%1,                M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,                Juan%Wu%NULL%1,                Lihua%Ni%NULL%1,                Qinqin%Luo%NULL%1,                Cheng%Yuan%NULL%1,                Fang%Fan%NULL%1,                Hong%Liu%NULL%0,                Changjiang%Zhang%NULL%1,                Yuandi%Xiang%NULL%1,                Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,                Bea%Mellaerts%NULL%1,                Hannelore%Vandewinckele%NULL%1,                Peter%Lybeert%NULL%1,                Eric%Frans%NULL%1,                Sara%Ombelet%NULL%1,                Wim%Lemahieu%NULL%1,                Rolf%Symons%NULL%3,                Erwin%Ho%NULL%1,                Johan%Frans%NULL%2,                Annick%Smismans%NULL%1,                Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,                Giuseppe%De Matteis%NULL%2,                Giuseppe%De Matteis%NULL%0,                Michele%Santoro%NULL%1,                Luca%Sabia%NULL%1,                Benedetta%Simeoni%NULL%1,                Marcello%Candelli%NULL%1,                Veronica%Ojetti%NULL%1,                Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,                Mathilda%Alsen%NULL%2,                Mathilda%Alsen%NULL%0,                Christine%Little%NULL%1,                Joshua%Barlow%NULL%1,                Eric%Genden%NULL%1,                Leonard%Naymagon%NULL%1,                Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                Ju-Hyun%Kim%NULL%1,                Jin-Sung%Park%NULL%1,                Min Cheol%Chang%wheel633@ynu.ac.kr%1,                Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,                Cristian%Tebé%NULL%2,                Cristian%Tebé%NULL%0,                Sergio%Fernandez-Bertolin%NULL%1,                Maria%Aragon%NULL%1,                Martina%Recalde%NULL%2,                Martina%Recalde%NULL%0,                Elena%Roel%NULL%1,                Albert%Prats-Uribe%NULL%2,                Albert%Prats-Uribe%NULL%0,                Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,                Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,                Talita%Duarte-Salles%NULL%2,                Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,                Massimiliano%Marino%NULL%1,                Debora%Formisano%NULL%1,                Francesco%Venturelli%NULL%1,                Massimo%Vicentini%NULL%2,                Massimo%Vicentini%NULL%0,                Roberto%Grilli%NULL%1,                NULL%NULL%NULL%0,                Gianluigi%Forloni%NULL%8,                Gianluigi%Forloni%NULL%0,                Gianluigi%Forloni%NULL%0,                Gianluigi%Forloni%NULL%0,                Gianluigi%Forloni%NULL%0,                Gianluigi%Forloni%NULL%0,                Gianluigi%Forloni%NULL%0,                Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,                Ashlyn M.%Jendro%NULL%1,                Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1183,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1152,7 +1212,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1181,7 +1241,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1210,7 +1270,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1239,7 +1299,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1268,7 +1328,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1297,7 +1357,7 @@
         <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1326,7 +1386,7 @@
         <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1355,7 +1415,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1384,7 +1444,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>

--- a/Covid_19_Dataset_and_References/References/19.xlsx
+++ b/Covid_19_Dataset_and_References/References/19.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="239">
   <si>
     <t>Doi</t>
   </si>
@@ -839,6 +839,36 @@
   </si>
   <si>
     <t>[Sanjana P.%Padala%NULL%1,                Ashlyn M.%Jendro%NULL%1,                Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,                 Jane A H%Masoli%NULL%2,                 Jane A H%Masoli%NULL%0,                 Joao%Delgado%NULL%2,                 Joao%Delgado%NULL%0,                 Luke C%Pilling%NULL%2,                 Luke C%Pilling%NULL%0,                 Chia-Ling%Kuo%NULL%2,                 Chia-Ling%Kuo%NULL%0,                 George A%Kuchel%NULL%2,                 George A%Kuchel%NULL%0,                 David%Melzer%D.Melzer@exeter.ac.uk%1,                 Anne B%Newman%NULL%2,                 Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,                 R.%Rozzini%NULL%1,                 F.%Guerini%NULL%1,                 S.%Boffelli%NULL%1,                 P.%Ranieri%NULL%1,                 G.%Minelli%NULL%1,                 L.%Bianchetti%NULL%1,                 M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,                 Juan%Wu%NULL%1,                 Lihua%Ni%NULL%1,                 Qinqin%Luo%NULL%1,                 Cheng%Yuan%NULL%1,                 Fang%Fan%NULL%1,                 Hong%Liu%NULL%0,                 Changjiang%Zhang%NULL%1,                 Yuandi%Xiang%NULL%1,                 Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,                 Bea%Mellaerts%NULL%1,                 Hannelore%Vandewinckele%NULL%1,                 Peter%Lybeert%NULL%1,                 Eric%Frans%NULL%1,                 Sara%Ombelet%NULL%1,                 Wim%Lemahieu%NULL%1,                 Rolf%Symons%NULL%3,                 Erwin%Ho%NULL%1,                 Johan%Frans%NULL%2,                 Annick%Smismans%NULL%1,                 Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,                 Giuseppe%De Matteis%NULL%2,                 Giuseppe%De Matteis%NULL%0,                 Michele%Santoro%NULL%1,                 Luca%Sabia%NULL%1,                 Benedetta%Simeoni%NULL%1,                 Marcello%Candelli%NULL%1,                 Veronica%Ojetti%NULL%1,                 Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,                 Mathilda%Alsen%NULL%2,                 Mathilda%Alsen%NULL%0,                 Christine%Little%NULL%1,                 Joshua%Barlow%NULL%1,                 Eric%Genden%NULL%1,                 Leonard%Naymagon%NULL%1,                 Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                 Ju-Hyun%Kim%NULL%1,                 Jin-Sung%Park%NULL%1,                 Min Cheol%Chang%wheel633@ynu.ac.kr%1,                 Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,                 Cristian%Tebé%NULL%2,                 Cristian%Tebé%NULL%0,                 Sergio%Fernandez-Bertolin%NULL%1,                 Maria%Aragon%NULL%1,                 Martina%Recalde%NULL%2,                 Martina%Recalde%NULL%0,                 Elena%Roel%NULL%1,                 Albert%Prats-Uribe%NULL%2,                 Albert%Prats-Uribe%NULL%0,                 Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,                 Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,                 Talita%Duarte-Salles%NULL%2,                 Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,                 Massimiliano%Marino%NULL%1,                 Debora%Formisano%NULL%1,                 Francesco%Venturelli%NULL%1,                 Massimo%Vicentini%NULL%2,                 Massimo%Vicentini%NULL%0,                 Roberto%Grilli%NULL%1,                 NULL%NULL%NULL%0,                 Gianluigi%Forloni%NULL%8,                 Gianluigi%Forloni%NULL%0,                 Gianluigi%Forloni%NULL%0,                 Gianluigi%Forloni%NULL%0,                 Gianluigi%Forloni%NULL%0,                 Gianluigi%Forloni%NULL%0,                 Gianluigi%Forloni%NULL%0,                 Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,                 Ashlyn M.%Jendro%NULL%1,                 Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1213,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1212,7 +1242,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1241,7 +1271,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1270,7 +1300,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1299,7 +1329,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1328,7 +1358,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1357,7 +1387,7 @@
         <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1386,7 +1416,7 @@
         <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1415,7 +1445,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1444,7 +1474,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>

--- a/Covid_19_Dataset_and_References/References/19.xlsx
+++ b/Covid_19_Dataset_and_References/References/19.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="252">
   <si>
     <t>Doi</t>
   </si>
@@ -869,6 +869,45 @@
   </si>
   <si>
     <t>[Sanjana P.%Padala%NULL%1,                 Ashlyn M.%Jendro%NULL%1,                 Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,                  Jane A H%Masoli%NULL%2,                  Jane A H%Masoli%NULL%0,                  Joao%Delgado%NULL%2,                  Joao%Delgado%NULL%0,                  Luke C%Pilling%NULL%2,                  Luke C%Pilling%NULL%0,                  Chia-Ling%Kuo%NULL%2,                  Chia-Ling%Kuo%NULL%0,                  George A%Kuchel%NULL%2,                  George A%Kuchel%NULL%0,                  David%Melzer%D.Melzer@exeter.ac.uk%1,                  Anne B%Newman%NULL%2,                  Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,                  R.%Rozzini%NULL%1,                  F.%Guerini%NULL%1,                  S.%Boffelli%NULL%1,                  P.%Ranieri%NULL%1,                  G.%Minelli%NULL%1,                  L.%Bianchetti%NULL%1,                  M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,                  Juan%Wu%NULL%1,                  Lihua%Ni%NULL%1,                  Qinqin%Luo%NULL%1,                  Cheng%Yuan%NULL%1,                  Fang%Fan%NULL%1,                  Hong%Liu%NULL%0,                  Changjiang%Zhang%NULL%1,                  Yuandi%Xiang%NULL%1,                  Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,                  Bea%Mellaerts%NULL%1,                  Hannelore%Vandewinckele%NULL%1,                  Peter%Lybeert%NULL%1,                  Eric%Frans%NULL%1,                  Sara%Ombelet%NULL%1,                  Wim%Lemahieu%NULL%1,                  Rolf%Symons%NULL%3,                  Erwin%Ho%NULL%1,                  Johan%Frans%NULL%2,                  Annick%Smismans%NULL%1,                  Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,                  Giuseppe%De Matteis%NULL%2,                  Giuseppe%De Matteis%NULL%0,                  Michele%Santoro%NULL%1,                  Luca%Sabia%NULL%1,                  Benedetta%Simeoni%NULL%1,                  Marcello%Candelli%NULL%1,                  Veronica%Ojetti%NULL%1,                  Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,                  Mathilda%Alsen%NULL%2,                  Mathilda%Alsen%NULL%0,                  Christine%Little%NULL%1,                  Joshua%Barlow%NULL%1,                  Eric%Genden%NULL%1,                  Leonard%Naymagon%NULL%1,                  Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                  Ju-Hyun%Kim%NULL%1,                  Jin-Sung%Park%NULL%1,                  Min Cheol%Chang%wheel633@ynu.ac.kr%1,                  Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,                  Cristian%Tebé%NULL%2,                  Cristian%Tebé%NULL%0,                  Sergio%Fernandez-Bertolin%NULL%1,                  Maria%Aragon%NULL%1,                  Martina%Recalde%NULL%2,                  Martina%Recalde%NULL%0,                  Elena%Roel%NULL%1,                  Albert%Prats-Uribe%NULL%2,                  Albert%Prats-Uribe%NULL%0,                  Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,                  Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,                  Talita%Duarte-Salles%NULL%2,                  Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,                  Massimiliano%Marino%NULL%1,                  Debora%Formisano%NULL%1,                  Francesco%Venturelli%NULL%1,                  Massimo%Vicentini%NULL%2,                  Massimo%Vicentini%NULL%0,                  Roberto%Grilli%NULL%1,                  NULL%NULL%NULL%0,                  Gianluigi%Forloni%NULL%8,                  Gianluigi%Forloni%NULL%0,                  Gianluigi%Forloni%NULL%0,                  Gianluigi%Forloni%NULL%0,                  Gianluigi%Forloni%NULL%0,                  Gianluigi%Forloni%NULL%0,                  Gianluigi%Forloni%NULL%0,                  Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,                  Ashlyn M.%Jendro%NULL%1,                  Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1252,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1225,7 +1264,7 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3">
@@ -1242,7 +1281,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1254,7 +1293,7 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4">
@@ -1271,7 +1310,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1283,7 +1322,7 @@
         <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
@@ -1300,7 +1339,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1312,7 +1351,7 @@
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6">
@@ -1329,7 +1368,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1341,7 +1380,7 @@
         <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7">
@@ -1358,7 +1397,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1370,7 +1409,7 @@
         <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8">
@@ -1387,7 +1426,7 @@
         <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1399,7 +1438,7 @@
         <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9">
@@ -1416,7 +1455,7 @@
         <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1428,7 +1467,7 @@
         <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10">
@@ -1445,7 +1484,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1457,7 +1496,7 @@
         <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11">
@@ -1474,7 +1513,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1486,7 +1525,7 @@
         <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/19.xlsx
+++ b/Covid_19_Dataset_and_References/References/19.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="262">
   <si>
     <t>Doi</t>
   </si>
@@ -908,6 +908,36 @@
   </si>
   <si>
     <t>[Sanjana P.%Padala%NULL%1,                  Ashlyn M.%Jendro%NULL%1,                  Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,                   Jane A H%Masoli%NULL%2,                   Jane A H%Masoli%NULL%0,                   Joao%Delgado%NULL%2,                   Joao%Delgado%NULL%0,                   Luke C%Pilling%NULL%2,                   Luke C%Pilling%NULL%0,                   Chia-Ling%Kuo%NULL%2,                   Chia-Ling%Kuo%NULL%0,                   George A%Kuchel%NULL%2,                   George A%Kuchel%NULL%0,                   David%Melzer%D.Melzer@exeter.ac.uk%1,                   Anne B%Newman%NULL%2,                   Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,                   R.%Rozzini%NULL%1,                   F.%Guerini%NULL%1,                   S.%Boffelli%NULL%1,                   P.%Ranieri%NULL%1,                   G.%Minelli%NULL%1,                   L.%Bianchetti%NULL%1,                   M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,                   Juan%Wu%NULL%1,                   Lihua%Ni%NULL%1,                   Qinqin%Luo%NULL%1,                   Cheng%Yuan%NULL%1,                   Fang%Fan%NULL%1,                   Hong%Liu%NULL%0,                   Changjiang%Zhang%NULL%1,                   Yuandi%Xiang%NULL%1,                   Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,                   Bea%Mellaerts%NULL%1,                   Hannelore%Vandewinckele%NULL%1,                   Peter%Lybeert%NULL%1,                   Eric%Frans%NULL%1,                   Sara%Ombelet%NULL%1,                   Wim%Lemahieu%NULL%1,                   Rolf%Symons%NULL%3,                   Erwin%Ho%NULL%1,                   Johan%Frans%NULL%2,                   Annick%Smismans%NULL%1,                   Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,                   Giuseppe%De Matteis%NULL%2,                   Giuseppe%De Matteis%NULL%0,                   Michele%Santoro%NULL%1,                   Luca%Sabia%NULL%1,                   Benedetta%Simeoni%NULL%1,                   Marcello%Candelli%NULL%1,                   Veronica%Ojetti%NULL%1,                   Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,                   Mathilda%Alsen%NULL%2,                   Mathilda%Alsen%NULL%0,                   Christine%Little%NULL%1,                   Joshua%Barlow%NULL%1,                   Eric%Genden%NULL%1,                   Leonard%Naymagon%NULL%1,                   Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                   Ju-Hyun%Kim%NULL%1,                   Jin-Sung%Park%NULL%1,                   Min Cheol%Chang%wheel633@ynu.ac.kr%1,                   Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,                   Cristian%Tebé%NULL%2,                   Cristian%Tebé%NULL%0,                   Sergio%Fernandez-Bertolin%NULL%1,                   Maria%Aragon%NULL%1,                   Martina%Recalde%NULL%2,                   Martina%Recalde%NULL%0,                   Elena%Roel%NULL%1,                   Albert%Prats-Uribe%NULL%2,                   Albert%Prats-Uribe%NULL%0,                   Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,                   Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,                   Talita%Duarte-Salles%NULL%2,                   Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,                   Massimiliano%Marino%NULL%1,                   Debora%Formisano%NULL%1,                   Francesco%Venturelli%NULL%1,                   Massimo%Vicentini%NULL%2,                   Massimo%Vicentini%NULL%0,                   Roberto%Grilli%NULL%1,                   NULL%NULL%NULL%0,                   Gianluigi%Forloni%NULL%8,                   Gianluigi%Forloni%NULL%0,                   Gianluigi%Forloni%NULL%0,                   Gianluigi%Forloni%NULL%0,                   Gianluigi%Forloni%NULL%0,                   Gianluigi%Forloni%NULL%0,                   Gianluigi%Forloni%NULL%0,                   Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,                   Ashlyn M.%Jendro%NULL%1,                   Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1282,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1281,7 +1311,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1310,7 +1340,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1339,7 +1369,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1368,7 +1398,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1397,7 +1427,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1426,7 +1456,7 @@
         <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1455,7 +1485,7 @@
         <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1484,7 +1514,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1513,7 +1543,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>

--- a/Covid_19_Dataset_and_References/References/19.xlsx
+++ b/Covid_19_Dataset_and_References/References/19.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="313">
   <si>
     <t>Doi</t>
   </si>
@@ -938,6 +938,159 @@
   </si>
   <si>
     <t>[Sanjana P.%Padala%NULL%1,                   Ashlyn M.%Jendro%NULL%1,                   Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,                    Jane A H%Masoli%NULL%2,                    Jane A H%Masoli%NULL%0,                    Joao%Delgado%NULL%2,                    Joao%Delgado%NULL%0,                    Luke C%Pilling%NULL%2,                    Luke C%Pilling%NULL%0,                    Chia-Ling%Kuo%NULL%2,                    Chia-Ling%Kuo%NULL%0,                    George A%Kuchel%NULL%2,                    George A%Kuchel%NULL%0,                    David%Melzer%D.Melzer@exeter.ac.uk%1,                    Anne B%Newman%NULL%2,                    Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,                    R.%Rozzini%NULL%1,                    F.%Guerini%NULL%1,                    S.%Boffelli%NULL%1,                    P.%Ranieri%NULL%1,                    G.%Minelli%NULL%1,                    L.%Bianchetti%NULL%1,                    M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,                    Juan%Wu%NULL%1,                    Lihua%Ni%NULL%1,                    Qinqin%Luo%NULL%1,                    Cheng%Yuan%NULL%1,                    Fang%Fan%NULL%1,                    Hong%Liu%NULL%0,                    Changjiang%Zhang%NULL%1,                    Yuandi%Xiang%NULL%1,                    Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,                    Bea%Mellaerts%NULL%1,                    Hannelore%Vandewinckele%NULL%1,                    Peter%Lybeert%NULL%1,                    Eric%Frans%NULL%1,                    Sara%Ombelet%NULL%1,                    Wim%Lemahieu%NULL%1,                    Rolf%Symons%NULL%3,                    Erwin%Ho%NULL%1,                    Johan%Frans%NULL%2,                    Annick%Smismans%NULL%1,                    Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,                    Giuseppe%De Matteis%NULL%2,                    Giuseppe%De Matteis%NULL%0,                    Michele%Santoro%NULL%1,                    Luca%Sabia%NULL%1,                    Benedetta%Simeoni%NULL%1,                    Marcello%Candelli%NULL%1,                    Veronica%Ojetti%NULL%1,                    Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,                    Mathilda%Alsen%NULL%2,                    Mathilda%Alsen%NULL%0,                    Christine%Little%NULL%1,                    Joshua%Barlow%NULL%1,                    Eric%Genden%NULL%1,                    Leonard%Naymagon%NULL%1,                    Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                    Ju-Hyun%Kim%NULL%1,                    Jin-Sung%Park%NULL%1,                    Min Cheol%Chang%wheel633@ynu.ac.kr%1,                    Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,                    Cristian%Tebé%NULL%2,                    Cristian%Tebé%NULL%0,                    Sergio%Fernandez-Bertolin%NULL%1,                    Maria%Aragon%NULL%1,                    Martina%Recalde%NULL%2,                    Martina%Recalde%NULL%0,                    Elena%Roel%NULL%1,                    Albert%Prats-Uribe%NULL%2,                    Albert%Prats-Uribe%NULL%0,                    Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,                    Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,                    Talita%Duarte-Salles%NULL%2,                    Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,                    Massimiliano%Marino%NULL%1,                    Debora%Formisano%NULL%1,                    Francesco%Venturelli%NULL%1,                    Massimo%Vicentini%NULL%2,                    Massimo%Vicentini%NULL%0,                    Roberto%Grilli%NULL%1,                    NULL%NULL%NULL%0,                    Gianluigi%Forloni%NULL%8,                    Gianluigi%Forloni%NULL%0,                    Gianluigi%Forloni%NULL%0,                    Gianluigi%Forloni%NULL%0,                    Gianluigi%Forloni%NULL%0,                    Gianluigi%Forloni%NULL%0,                    Gianluigi%Forloni%NULL%0,                    Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,                    Ashlyn M.%Jendro%NULL%1,                    Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,                     Jane A H%Masoli%NULL%2,                     Jane A H%Masoli%NULL%0,                     Joao%Delgado%NULL%2,                     Joao%Delgado%NULL%0,                     Luke C%Pilling%NULL%2,                     Luke C%Pilling%NULL%0,                     Chia-Ling%Kuo%NULL%2,                     Chia-Ling%Kuo%NULL%0,                     George A%Kuchel%NULL%2,                     George A%Kuchel%NULL%0,                     David%Melzer%D.Melzer@exeter.ac.uk%1,                     Anne B%Newman%NULL%2,                     Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,                     R.%Rozzini%NULL%1,                     F.%Guerini%NULL%1,                     S.%Boffelli%NULL%1,                     P.%Ranieri%NULL%1,                     G.%Minelli%NULL%1,                     L.%Bianchetti%NULL%1,                     M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,                     Juan%Wu%NULL%1,                     Lihua%Ni%NULL%1,                     Qinqin%Luo%NULL%1,                     Cheng%Yuan%NULL%1,                     Fang%Fan%NULL%1,                     Hong%Liu%NULL%0,                     Changjiang%Zhang%NULL%1,                     Yuandi%Xiang%NULL%1,                     Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,                     Bea%Mellaerts%NULL%1,                     Hannelore%Vandewinckele%NULL%1,                     Peter%Lybeert%NULL%1,                     Eric%Frans%NULL%1,                     Sara%Ombelet%NULL%1,                     Wim%Lemahieu%NULL%1,                     Rolf%Symons%NULL%3,                     Erwin%Ho%NULL%1,                     Johan%Frans%NULL%2,                     Annick%Smismans%NULL%1,                     Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,                     Giuseppe%De Matteis%NULL%2,                     Giuseppe%De Matteis%NULL%0,                     Michele%Santoro%NULL%1,                     Luca%Sabia%NULL%1,                     Benedetta%Simeoni%NULL%1,                     Marcello%Candelli%NULL%1,                     Veronica%Ojetti%NULL%1,                     Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,                     Mathilda%Alsen%NULL%2,                     Mathilda%Alsen%NULL%0,                     Christine%Little%NULL%1,                     Joshua%Barlow%NULL%1,                     Eric%Genden%NULL%1,                     Leonard%Naymagon%NULL%1,                     Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                     Ju-Hyun%Kim%NULL%1,                     Jin-Sung%Park%NULL%1,                     Min Cheol%Chang%wheel633@ynu.ac.kr%1,                     Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,                     Cristian%Tebé%NULL%2,                     Cristian%Tebé%NULL%0,                     Sergio%Fernandez-Bertolin%NULL%1,                     Maria%Aragon%NULL%1,                     Martina%Recalde%NULL%2,                     Martina%Recalde%NULL%0,                     Elena%Roel%NULL%1,                     Albert%Prats-Uribe%NULL%2,                     Albert%Prats-Uribe%NULL%0,                     Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,                     Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,                     Talita%Duarte-Salles%NULL%2,                     Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,                     Massimiliano%Marino%NULL%1,                     Debora%Formisano%NULL%1,                     Francesco%Venturelli%NULL%1,                     Massimo%Vicentini%NULL%2,                     Massimo%Vicentini%NULL%0,                     Roberto%Grilli%NULL%1,                     NULL%NULL%NULL%0,                     Gianluigi%Forloni%NULL%8,                     Gianluigi%Forloni%NULL%0,                     Gianluigi%Forloni%NULL%0,                     Gianluigi%Forloni%NULL%0,                     Gianluigi%Forloni%NULL%0,                     Gianluigi%Forloni%NULL%0,                     Gianluigi%Forloni%NULL%0,                     Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,                     Ashlyn M.%Jendro%NULL%1,                     Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,                      Jane A H%Masoli%NULL%2,                      Jane A H%Masoli%NULL%0,                      Joao%Delgado%NULL%2,                      Joao%Delgado%NULL%0,                      Luke C%Pilling%NULL%2,                      Luke C%Pilling%NULL%0,                      Chia-Ling%Kuo%NULL%2,                      Chia-Ling%Kuo%NULL%0,                      George A%Kuchel%NULL%2,                      George A%Kuchel%NULL%0,                      David%Melzer%D.Melzer@exeter.ac.uk%1,                      Anne B%Newman%NULL%2,                      Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,                      R.%Rozzini%NULL%1,                      F.%Guerini%NULL%1,                      S.%Boffelli%NULL%1,                      P.%Ranieri%NULL%1,                      G.%Minelli%NULL%1,                      L.%Bianchetti%NULL%1,                      M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,                      Juan%Wu%NULL%1,                      Lihua%Ni%NULL%1,                      Qinqin%Luo%NULL%1,                      Cheng%Yuan%NULL%1,                      Fang%Fan%NULL%1,                      Hong%Liu%NULL%0,                      Changjiang%Zhang%NULL%1,                      Yuandi%Xiang%NULL%1,                      Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,                      Bea%Mellaerts%NULL%1,                      Hannelore%Vandewinckele%NULL%1,                      Peter%Lybeert%NULL%1,                      Eric%Frans%NULL%1,                      Sara%Ombelet%NULL%1,                      Wim%Lemahieu%NULL%1,                      Rolf%Symons%NULL%3,                      Erwin%Ho%NULL%1,                      Johan%Frans%NULL%2,                      Annick%Smismans%NULL%1,                      Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,                      Giuseppe%De Matteis%NULL%2,                      Giuseppe%De Matteis%NULL%0,                      Michele%Santoro%NULL%1,                      Luca%Sabia%NULL%1,                      Benedetta%Simeoni%NULL%1,                      Marcello%Candelli%NULL%1,                      Veronica%Ojetti%NULL%1,                      Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,                      Mathilda%Alsen%NULL%2,                      Mathilda%Alsen%NULL%0,                      Christine%Little%NULL%1,                      Joshua%Barlow%NULL%1,                      Eric%Genden%NULL%1,                      Leonard%Naymagon%NULL%1,                      Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                      Ju-Hyun%Kim%NULL%1,                      Jin-Sung%Park%NULL%1,                      Min Cheol%Chang%wheel633@ynu.ac.kr%1,                      Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,                      Cristian%Tebé%NULL%2,                      Cristian%Tebé%NULL%0,                      Sergio%Fernandez-Bertolin%NULL%1,                      Maria%Aragon%NULL%1,                      Martina%Recalde%NULL%2,                      Martina%Recalde%NULL%0,                      Elena%Roel%NULL%1,                      Albert%Prats-Uribe%NULL%2,                      Albert%Prats-Uribe%NULL%0,                      Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,                      Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,                      Talita%Duarte-Salles%NULL%2,                      Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,                      Massimiliano%Marino%NULL%1,                      Debora%Formisano%NULL%1,                      Francesco%Venturelli%NULL%1,                      Massimo%Vicentini%NULL%2,                      Massimo%Vicentini%NULL%0,                      Roberto%Grilli%NULL%1,                      NULL%NULL%NULL%0,                      Gianluigi%Forloni%NULL%8,                      Gianluigi%Forloni%NULL%0,                      Gianluigi%Forloni%NULL%0,                      Gianluigi%Forloni%NULL%0,                      Gianluigi%Forloni%NULL%0,                      Gianluigi%Forloni%NULL%0,                      Gianluigi%Forloni%NULL%0,                      Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,                      Ashlyn M.%Jendro%NULL%1,                      Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,                       Jane A H%Masoli%NULL%2,                       Jane A H%Masoli%NULL%0,                       Joao%Delgado%NULL%2,                       Joao%Delgado%NULL%0,                       Luke C%Pilling%NULL%2,                       Luke C%Pilling%NULL%0,                       Chia-Ling%Kuo%NULL%2,                       Chia-Ling%Kuo%NULL%0,                       George A%Kuchel%NULL%2,                       George A%Kuchel%NULL%0,                       David%Melzer%D.Melzer@exeter.ac.uk%1,                       Anne B%Newman%NULL%2,                       Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,                       R.%Rozzini%NULL%1,                       F.%Guerini%NULL%1,                       S.%Boffelli%NULL%1,                       P.%Ranieri%NULL%1,                       G.%Minelli%NULL%1,                       L.%Bianchetti%NULL%1,                       M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,                       Juan%Wu%NULL%1,                       Lihua%Ni%NULL%1,                       Qinqin%Luo%NULL%1,                       Cheng%Yuan%NULL%1,                       Fang%Fan%NULL%1,                       Hong%Liu%NULL%0,                       Changjiang%Zhang%NULL%1,                       Yuandi%Xiang%NULL%1,                       Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,                       Bea%Mellaerts%NULL%1,                       Hannelore%Vandewinckele%NULL%1,                       Peter%Lybeert%NULL%1,                       Eric%Frans%NULL%1,                       Sara%Ombelet%NULL%1,                       Wim%Lemahieu%NULL%1,                       Rolf%Symons%NULL%3,                       Erwin%Ho%NULL%1,                       Johan%Frans%NULL%2,                       Annick%Smismans%NULL%1,                       Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,                       Giuseppe%De Matteis%NULL%2,                       Giuseppe%De Matteis%NULL%0,                       Michele%Santoro%NULL%1,                       Luca%Sabia%NULL%1,                       Benedetta%Simeoni%NULL%1,                       Marcello%Candelli%NULL%1,                       Veronica%Ojetti%NULL%1,                       Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,                       Mathilda%Alsen%NULL%2,                       Mathilda%Alsen%NULL%0,                       Christine%Little%NULL%1,                       Joshua%Barlow%NULL%1,                       Eric%Genden%NULL%1,                       Leonard%Naymagon%NULL%1,                       Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                       Ju-Hyun%Kim%NULL%1,                       Jin-Sung%Park%NULL%1,                       Min Cheol%Chang%wheel633@ynu.ac.kr%1,                       Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,                       Cristian%Tebé%NULL%2,                       Cristian%Tebé%NULL%0,                       Sergio%Fernandez-Bertolin%NULL%1,                       Maria%Aragon%NULL%1,                       Martina%Recalde%NULL%2,                       Martina%Recalde%NULL%0,                       Elena%Roel%NULL%1,                       Albert%Prats-Uribe%NULL%2,                       Albert%Prats-Uribe%NULL%0,                       Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,                       Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,                       Talita%Duarte-Salles%NULL%2,                       Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,                       Massimiliano%Marino%NULL%1,                       Debora%Formisano%NULL%1,                       Francesco%Venturelli%NULL%1,                       Massimo%Vicentini%NULL%2,                       Massimo%Vicentini%NULL%0,                       Roberto%Grilli%NULL%1,                       NULL%NULL%NULL%0,                       Gianluigi%Forloni%NULL%8,                       Gianluigi%Forloni%NULL%0,                       Gianluigi%Forloni%NULL%0,                       Gianluigi%Forloni%NULL%0,                       Gianluigi%Forloni%NULL%0,                       Gianluigi%Forloni%NULL%0,                       Gianluigi%Forloni%NULL%0,                       Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,                       Ashlyn M.%Jendro%NULL%1,                       Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,                        Jane A H%Masoli%NULL%2,                        Jane A H%Masoli%NULL%0,                        Joao%Delgado%NULL%2,                        Joao%Delgado%NULL%0,                        Luke C%Pilling%NULL%2,                        Luke C%Pilling%NULL%0,                        Chia-Ling%Kuo%NULL%2,                        Chia-Ling%Kuo%NULL%0,                        George A%Kuchel%NULL%2,                        George A%Kuchel%NULL%0,                        David%Melzer%D.Melzer@exeter.ac.uk%1,                        Anne B%Newman%NULL%2,                        Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,                        R.%Rozzini%NULL%1,                        F.%Guerini%NULL%1,                        S.%Boffelli%NULL%1,                        P.%Ranieri%NULL%1,                        G.%Minelli%NULL%1,                        L.%Bianchetti%NULL%1,                        M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,                        Juan%Wu%NULL%1,                        Lihua%Ni%NULL%1,                        Qinqin%Luo%NULL%1,                        Cheng%Yuan%NULL%1,                        Fang%Fan%NULL%1,                        Hong%Liu%NULL%0,                        Changjiang%Zhang%NULL%1,                        Yuandi%Xiang%NULL%1,                        Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,                        Bea%Mellaerts%NULL%1,                        Hannelore%Vandewinckele%NULL%1,                        Peter%Lybeert%NULL%1,                        Eric%Frans%NULL%1,                        Sara%Ombelet%NULL%1,                        Wim%Lemahieu%NULL%1,                        Rolf%Symons%NULL%3,                        Erwin%Ho%NULL%1,                        Johan%Frans%NULL%2,                        Annick%Smismans%NULL%1,                        Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,                        Giuseppe%De Matteis%NULL%2,                        Giuseppe%De Matteis%NULL%0,                        Michele%Santoro%NULL%1,                        Luca%Sabia%NULL%1,                        Benedetta%Simeoni%NULL%1,                        Marcello%Candelli%NULL%1,                        Veronica%Ojetti%NULL%1,                        Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,                        Mathilda%Alsen%NULL%2,                        Mathilda%Alsen%NULL%0,                        Christine%Little%NULL%1,                        Joshua%Barlow%NULL%1,                        Eric%Genden%NULL%1,                        Leonard%Naymagon%NULL%1,                        Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                        Ju-Hyun%Kim%NULL%1,                        Jin-Sung%Park%NULL%1,                        Min Cheol%Chang%wheel633@ynu.ac.kr%1,                        Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,                        Cristian%Tebé%NULL%2,                        Cristian%Tebé%NULL%0,                        Sergio%Fernandez-Bertolin%NULL%1,                        Maria%Aragon%NULL%1,                        Martina%Recalde%NULL%2,                        Martina%Recalde%NULL%0,                        Elena%Roel%NULL%1,                        Albert%Prats-Uribe%NULL%2,                        Albert%Prats-Uribe%NULL%0,                        Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,                        Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,                        Talita%Duarte-Salles%NULL%2,                        Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,                        Massimiliano%Marino%NULL%1,                        Debora%Formisano%NULL%1,                        Francesco%Venturelli%NULL%1,                        Massimo%Vicentini%NULL%2,                        Massimo%Vicentini%NULL%0,                        Roberto%Grilli%NULL%1,                        NULL%NULL%NULL%0,                        Gianluigi%Forloni%NULL%8,                        Gianluigi%Forloni%NULL%0,                        Gianluigi%Forloni%NULL%0,                        Gianluigi%Forloni%NULL%0,                        Gianluigi%Forloni%NULL%0,                        Gianluigi%Forloni%NULL%0,                        Gianluigi%Forloni%NULL%0,                        Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,                        Ashlyn M.%Jendro%NULL%1,                        Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
   </si>
 </sst>
 </file>
@@ -1267,6 +1420,9 @@
       <c r="I1" t="s">
         <v>73</v>
       </c>
+      <c r="J1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1282,7 +1438,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1295,6 +1451,9 @@
       </c>
       <c r="I2" t="s">
         <v>240</v>
+      </c>
+      <c r="J2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -1311,7 +1470,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1324,6 +1483,9 @@
       </c>
       <c r="I3" t="s">
         <v>242</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -1340,7 +1502,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1353,6 +1515,9 @@
       </c>
       <c r="I4" t="s">
         <v>240</v>
+      </c>
+      <c r="J4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1369,7 +1534,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1382,6 +1547,9 @@
       </c>
       <c r="I5" t="s">
         <v>245</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1398,7 +1566,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1411,6 +1579,9 @@
       </c>
       <c r="I6" t="s">
         <v>240</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1427,7 +1598,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1440,6 +1611,9 @@
       </c>
       <c r="I7" t="s">
         <v>240</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1456,7 +1630,7 @@
         <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1469,6 +1643,9 @@
       </c>
       <c r="I8" t="s">
         <v>242</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1485,7 +1662,7 @@
         <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1498,6 +1675,9 @@
       </c>
       <c r="I9" t="s">
         <v>242</v>
+      </c>
+      <c r="J9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -1514,7 +1694,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1527,6 +1707,9 @@
       </c>
       <c r="I10" t="s">
         <v>240</v>
+      </c>
+      <c r="J10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -1543,7 +1726,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1556,6 +1739,9 @@
       </c>
       <c r="I11" t="s">
         <v>245</v>
+      </c>
+      <c r="J11" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/19.xlsx
+++ b/Covid_19_Dataset_and_References/References/19.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="333">
   <si>
     <t>Doi</t>
   </si>
@@ -1091,6 +1091,66 @@
   </si>
   <si>
     <t>[Sanjana P.%Padala%NULL%1,                        Ashlyn M.%Jendro%NULL%1,                        Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,                         Jane A H%Masoli%NULL%2,                         Jane A H%Masoli%NULL%0,                         Joao%Delgado%NULL%2,                         Joao%Delgado%NULL%0,                         Luke C%Pilling%NULL%2,                         Luke C%Pilling%NULL%0,                         Chia-Ling%Kuo%NULL%2,                         Chia-Ling%Kuo%NULL%0,                         George A%Kuchel%NULL%2,                         George A%Kuchel%NULL%0,                         David%Melzer%D.Melzer@exeter.ac.uk%1,                         Anne B%Newman%NULL%2,                         Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,                         R.%Rozzini%NULL%1,                         F.%Guerini%NULL%1,                         S.%Boffelli%NULL%1,                         P.%Ranieri%NULL%1,                         G.%Minelli%NULL%1,                         L.%Bianchetti%NULL%1,                         M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,                         Juan%Wu%NULL%1,                         Lihua%Ni%NULL%1,                         Qinqin%Luo%NULL%1,                         Cheng%Yuan%NULL%1,                         Fang%Fan%NULL%1,                         Hong%Liu%NULL%0,                         Changjiang%Zhang%NULL%1,                         Yuandi%Xiang%NULL%1,                         Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,                         Bea%Mellaerts%NULL%1,                         Hannelore%Vandewinckele%NULL%1,                         Peter%Lybeert%NULL%1,                         Eric%Frans%NULL%1,                         Sara%Ombelet%NULL%1,                         Wim%Lemahieu%NULL%1,                         Rolf%Symons%NULL%3,                         Erwin%Ho%NULL%1,                         Johan%Frans%NULL%2,                         Annick%Smismans%NULL%1,                         Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,                         Giuseppe%De Matteis%NULL%2,                         Giuseppe%De Matteis%NULL%0,                         Michele%Santoro%NULL%1,                         Luca%Sabia%NULL%1,                         Benedetta%Simeoni%NULL%1,                         Marcello%Candelli%NULL%1,                         Veronica%Ojetti%NULL%1,                         Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,                         Mathilda%Alsen%NULL%2,                         Mathilda%Alsen%NULL%0,                         Christine%Little%NULL%1,                         Joshua%Barlow%NULL%1,                         Eric%Genden%NULL%1,                         Leonard%Naymagon%NULL%1,                         Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                         Ju-Hyun%Kim%NULL%1,                         Jin-Sung%Park%NULL%1,                         Min Cheol%Chang%wheel633@ynu.ac.kr%1,                         Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,                         Cristian%Tebé%NULL%2,                         Cristian%Tebé%NULL%0,                         Sergio%Fernandez-Bertolin%NULL%1,                         Maria%Aragon%NULL%1,                         Martina%Recalde%NULL%2,                         Martina%Recalde%NULL%0,                         Elena%Roel%NULL%1,                         Albert%Prats-Uribe%NULL%2,                         Albert%Prats-Uribe%NULL%0,                         Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,                         Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,                         Talita%Duarte-Salles%NULL%2,                         Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,                         Massimiliano%Marino%NULL%1,                         Debora%Formisano%NULL%1,                         Francesco%Venturelli%NULL%1,                         Massimo%Vicentini%NULL%2,                         Massimo%Vicentini%NULL%0,                         Roberto%Grilli%NULL%1,                         NULL%NULL%NULL%0,                         Gianluigi%Forloni%NULL%8,                         Gianluigi%Forloni%NULL%0,                         Gianluigi%Forloni%NULL%0,                         Gianluigi%Forloni%NULL%0,                         Gianluigi%Forloni%NULL%0,                         Gianluigi%Forloni%NULL%0,                         Gianluigi%Forloni%NULL%0,                         Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,                         Ashlyn M.%Jendro%NULL%1,                         Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
+  </si>
+  <si>
+    <t>[Janice L%Atkins%NULL%1,                          Jane A H%Masoli%NULL%2,                          Jane A H%Masoli%NULL%0,                          Joao%Delgado%NULL%2,                          Joao%Delgado%NULL%0,                          Luke C%Pilling%NULL%2,                          Luke C%Pilling%NULL%0,                          Chia-Ling%Kuo%NULL%2,                          Chia-Ling%Kuo%NULL%0,                          George A%Kuchel%NULL%2,                          George A%Kuchel%NULL%0,                          David%Melzer%D.Melzer@exeter.ac.uk%1,                          Anne B%Newman%NULL%2,                          Anne B%Newman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Bianchetti%angelo.bianchetti@grupposandonato.it%1,                          R.%Rozzini%NULL%1,                          F.%Guerini%NULL%1,                          S.%Boffelli%NULL%1,                          P.%Ranieri%NULL%1,                          G.%Minelli%NULL%1,                          L.%Bianchetti%NULL%1,                          M.%Trabucchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Wan%NULL%1,                          Juan%Wu%NULL%1,                          Lihua%Ni%NULL%1,                          Qinqin%Luo%NULL%1,                          Cheng%Yuan%NULL%1,                          Fang%Fan%NULL%1,                          Hong%Liu%NULL%0,                          Changjiang%Zhang%NULL%1,                          Yuandi%Xiang%NULL%1,                          Qin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Robert%De Smet%NULL%1,                          Bea%Mellaerts%NULL%1,                          Hannelore%Vandewinckele%NULL%1,                          Peter%Lybeert%NULL%1,                          Eric%Frans%NULL%1,                          Sara%Ombelet%NULL%1,                          Wim%Lemahieu%NULL%1,                          Rolf%Symons%NULL%3,                          Erwin%Ho%NULL%1,                          Johan%Frans%NULL%2,                          Annick%Smismans%NULL%1,                          Michaël R.%Laurent%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%marcello.covino@policlinicogemelli.it%2,                          Giuseppe%De Matteis%NULL%2,                          Giuseppe%De Matteis%NULL%0,                          Michele%Santoro%NULL%1,                          Luca%Sabia%NULL%1,                          Benedetta%Simeoni%NULL%1,                          Marcello%Candelli%NULL%1,                          Veronica%Ojetti%NULL%1,                          Francesco%Franceschi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maaike%van Gerwen%maaike.vangerwen@mountsinai.org%1,                          Mathilda%Alsen%NULL%2,                          Mathilda%Alsen%NULL%0,                          Christine%Little%NULL%1,                          Joshua%Barlow%NULL%1,                          Eric%Genden%NULL%1,                          Leonard%Naymagon%NULL%1,                          Douglas%Tremblay%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                          Ju-Hyun%Kim%NULL%1,                          Jin-Sung%Park%NULL%1,                          Min Cheol%Chang%wheel633@ynu.ac.kr%1,                          Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Edward%Burn%NULL%1,                          Cristian%Tebé%NULL%2,                          Cristian%Tebé%NULL%0,                          Sergio%Fernandez-Bertolin%NULL%1,                          Maria%Aragon%NULL%1,                          Martina%Recalde%NULL%2,                          Martina%Recalde%NULL%0,                          Elena%Roel%NULL%1,                          Albert%Prats-Uribe%NULL%2,                          Albert%Prats-Uribe%NULL%0,                          Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%2,                          Daniel%Prieto-Alhambra%daniel.prietoalhambra@ndorms.ox.ac.uk%0,                          Talita%Duarte-Salles%NULL%2,                          Talita%Duarte-Salles%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,                          Massimiliano%Marino%NULL%1,                          Debora%Formisano%NULL%1,                          Francesco%Venturelli%NULL%1,                          Massimo%Vicentini%NULL%2,                          Massimo%Vicentini%NULL%0,                          Roberto%Grilli%NULL%1,                          NULL%NULL%NULL%0,                          Gianluigi%Forloni%NULL%8,                          Gianluigi%Forloni%NULL%0,                          Gianluigi%Forloni%NULL%0,                          Gianluigi%Forloni%NULL%0,                          Gianluigi%Forloni%NULL%0,                          Gianluigi%Forloni%NULL%0,                          Gianluigi%Forloni%NULL%0,                          Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sanjana P.%Padala%NULL%1,                          Ashlyn M.%Jendro%NULL%1,                          Lillian C.%Orr%Lillian.Orr@va.gov%1]</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1498,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1470,7 +1530,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1502,7 +1562,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1534,7 +1594,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1566,7 +1626,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1598,7 +1658,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1630,7 +1690,7 @@
         <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1662,7 +1722,7 @@
         <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1694,7 +1754,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1726,7 +1786,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
